--- a/Calendrier et table de fêtes mobiles.xlsx
+++ b/Calendrier et table de fêtes mobiles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
   <si>
     <t>Kalendarium Perpetuum.</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Duplex II classis.</t>
   </si>
   <si>
-    <t>Dominica inter Circumcisionem et Epiphianam, Ss. Nominis Jesu.</t>
+    <t>Dominica inter Circumcisionem et Epiphaniam. Ss. Nominis Jesu.</t>
   </si>
   <si>
     <t>b</t>
@@ -121,6 +121,12 @@
     <t>S. Familiæ Jesu, Mariæ, Joseph.</t>
   </si>
   <si>
+    <t>Duplex majus.</t>
+  </si>
+  <si>
+    <t>Commem. Dominicæ et Octavæ.</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
@@ -151,9 +157,6 @@
     <t>Octava Epiphianiæ.</t>
   </si>
   <si>
-    <t>Duplex majus.</t>
-  </si>
-  <si>
     <t>xix</t>
   </si>
   <si>
@@ -181,12 +184,15 @@
     <t>xvij</t>
   </si>
   <si>
+    <t>S. Marcelli I Papæ Mart.</t>
+  </si>
+  <si>
+    <t>xvj</t>
+  </si>
+  <si>
     <t>S. Antonii Abbatis.</t>
   </si>
   <si>
-    <t>xvj</t>
-  </si>
-  <si>
     <t>xv</t>
   </si>
   <si>
@@ -220,7 +226,7 @@
     <t>xj</t>
   </si>
   <si>
-    <t>SS. Vincentii eet Anastasii Martyrum.</t>
+    <t>SS. Vincentii et Anastasii Martyrum.</t>
   </si>
   <si>
     <t>x</t>
@@ -235,13 +241,16 @@
     <t>ix</t>
   </si>
   <si>
+    <t>S. Timothei Episc. Martyris.</t>
+  </si>
+  <si>
     <t>Conversio S. Pauli Ap.</t>
   </si>
   <si>
     <t>Comm. S. Petri Ap.</t>
   </si>
   <si>
-    <t>S. Polycarpi episc. Martyris.</t>
+    <t>S. Polycarpi Episc. Martyris.</t>
   </si>
   <si>
     <t>S. Joannis Chrysostomi Episc. Conf. et Eccl. Doct.</t>
@@ -283,7 +292,7 @@
     <t>S. Titi Episc. Conf.</t>
   </si>
   <si>
-    <t>Comm. S. Dorotheæ Virginis t Martyris.</t>
+    <t>Comm. S. Dorotheæ Virginis et Martyris.</t>
   </si>
   <si>
     <t>S. Romualdi Abbatis.</t>
@@ -304,7 +313,7 @@
     <t>Apparitionis B.M.V. Immaculatæ.</t>
   </si>
   <si>
-    <t>SS. Septm Fundatorum Ord. Servorum B.V.M.</t>
+    <t>SS. Septem Fundatorum Ord. Servorum B.V.M., Cc.</t>
   </si>
   <si>
     <t>S. Valentini Presbyteri Martyris.</t>
@@ -391,561 +400,573 @@
     <t>Feria VI post Dom. Passionis</t>
   </si>
   <si>
+    <t>Septum Dolorum B. Mariæ Virginis.</t>
+  </si>
+  <si>
+    <t>Comm. Feriæ.</t>
+  </si>
+  <si>
+    <t>avril</t>
+  </si>
+  <si>
+    <t>S. Francisci de Paula Conf.</t>
+  </si>
+  <si>
+    <t>S. Isidori Episc. Conf. et Eccl. Doctoris.</t>
+  </si>
+  <si>
+    <t>S. Vincentii Ferrerii Conf.</t>
+  </si>
+  <si>
+    <t>S. Leonis I Papæ, Conf. et Eccl. Doctoris.</t>
+  </si>
+  <si>
+    <t>S. Hermenegildi Martyris.</t>
+  </si>
+  <si>
+    <t>S. Justini Mart.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Tiburtii, Valeriani et Maximi Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Aniceti I, Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Anselmi Episc. Conf. et Eccl. Doctoris.</t>
+  </si>
+  <si>
+    <t>SS. Soteris et Caji Pontif. Mart.</t>
+  </si>
+  <si>
+    <t>S. Georgii Martyris.</t>
+  </si>
+  <si>
+    <t>S. Fidelis a Sigmaringa Martyris.</t>
+  </si>
+  <si>
+    <t>S. Marci Evangelistæ.</t>
+  </si>
+  <si>
+    <t>SS. Cleti et Marcellini Pontif. Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Petri Canisii Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>S. Pauli a Cruce Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Vitalis Martyrris.</t>
+  </si>
+  <si>
+    <t>S. Petri Martyris.</t>
+  </si>
+  <si>
+    <t>S. Catharinæ Senensis Virginis.</t>
+  </si>
+  <si>
+    <t>Feria IV infra Hebdomadam II post octavam Paschæ.</t>
+  </si>
+  <si>
+    <t>SOLEMNITAS S. JOSEPH, Sponsi B.M.V., Conf. et Eccl. univers. Patroni.</t>
+  </si>
+  <si>
+    <t>Duplex I classis cum Octava communi.</t>
+  </si>
+  <si>
+    <t>Feria IV infra Hebdomadam III post octavam Paschæ.</t>
+  </si>
+  <si>
+    <t>Octava S. Joseph.</t>
+  </si>
+  <si>
+    <t>mai</t>
+  </si>
+  <si>
+    <t>SS. Philippi et Jacobi Apostolorum.</t>
+  </si>
+  <si>
+    <t>S. Athanasii Episc. Conf. et Eccl. Doctoris.</t>
+  </si>
+  <si>
+    <t>Inventio S. Crucis.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Alexandri I Papæ et Soc. Martyrum, ac S. Juvenalis Episc. Conf.</t>
+  </si>
+  <si>
+    <t>S. Monicæ Viduæ.</t>
+  </si>
+  <si>
+    <t>S. Pii V Papæ Conf.</t>
+  </si>
+  <si>
+    <t>S. Joannis Ap. ante Portam Latinam.</t>
+  </si>
+  <si>
+    <t>S. Stanislai Episc. Martyris.</t>
+  </si>
+  <si>
+    <t>Apparitio S. Michaelis Archangeli.</t>
+  </si>
+  <si>
+    <t>S. Grgeorii Nazianzni Episc. Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>S. Antonini Episc. Conf.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Gordiani et Epimachi Martyrum.</t>
+  </si>
+  <si>
+    <t>SS. Nerei, Achillei et Domitillæ Virginis, atque Pancratii Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Roberti Bellarmino Episc. Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>S. Bonifatii Martyris.</t>
+  </si>
+  <si>
+    <t>S. Joannis Baptistæ de la Salle Conf.</t>
+  </si>
+  <si>
+    <t>S. Ubaldi Episc. Conf.</t>
+  </si>
+  <si>
+    <t>S. Paschalis Baylon Conf.</t>
+  </si>
+  <si>
+    <t>S. Venantii Martyris.</t>
+  </si>
+  <si>
+    <t>S. Petri Cœlestini Papæ Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Pudentianæ Virginis.</t>
+  </si>
+  <si>
+    <t>S. Bernardini Senensis Conf.</t>
+  </si>
+  <si>
+    <t>S. Gregorii VII Papæ Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Urbani I Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Philippi Nerii Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Eleutherii  Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Bedæ Venerabilis Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>Comm. S. Joannis I Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Augustini Episc. Conf.</t>
+  </si>
+  <si>
+    <t>S. Mariæ Magdalenæ de Pazzis Virg.</t>
+  </si>
+  <si>
+    <t>S. Felicis I Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Angelæ Mericiæ Virg.</t>
+  </si>
+  <si>
+    <t>Comm. S. Petronillæ Virg.</t>
+  </si>
+  <si>
+    <t>B. Mariæ Virginis Reginæ.</t>
+  </si>
+  <si>
+    <t>juin</t>
+  </si>
+  <si>
+    <t>SS. Marcellini, Petri atque Erasmi Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Francisci Caracciolo Conf.</t>
+  </si>
+  <si>
+    <t>S. Bonifatii Episc. Martyris.</t>
+  </si>
+  <si>
+    <t>S. Norberti Episc. Conf.</t>
+  </si>
+  <si>
+    <t>SS. Primi et Feliciani Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Margaritæ Reginæ Viduæ.</t>
+  </si>
+  <si>
+    <t>S. Barnabæ Apostoli.</t>
+  </si>
+  <si>
+    <t>S. Joannis a S. Facundo Conf.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Basilidis, Cyrini, Naboris et Nazarii Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Antonii de Padua Conf. (et Eccl. Doct.)</t>
+  </si>
+  <si>
+    <t>S. Basilii Magni Episc. Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>SS. Viti, Modesti atque Crescentiæ Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Ephraem Syri Diac., Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>S. Julianæ de Falconeriis Virginis.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Gervasii et Protasii Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Silverii Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Aloisii Gonzagæ Conf.</t>
+  </si>
+  <si>
+    <t>S. Paulini Episc. Conf.</t>
+  </si>
+  <si>
+    <t>Vigilia.</t>
+  </si>
+  <si>
+    <t>NATIVITAS S. JOANNIS BAPTISTÆ.</t>
+  </si>
+  <si>
+    <t>S. Gulielmi Abbatis.</t>
+  </si>
+  <si>
+    <t>Comm. Octavæ.</t>
+  </si>
+  <si>
+    <t>SS. Joannis et Pauli Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Irenæi Episc. et Martyr.</t>
+  </si>
+  <si>
+    <t>Comm. Octavæ et Vigiliæ.</t>
+  </si>
+  <si>
+    <t>SS. PETRI ET PAULI APOSTOLORUM.</t>
+  </si>
+  <si>
+    <t>Commemoratio S. Pauli Apostoli.</t>
+  </si>
+  <si>
+    <t>Comm. S. Petri Apostoli et Octavæ S. Joannis Baptistæ.</t>
+  </si>
+  <si>
+    <t>juillet</t>
+  </si>
+  <si>
+    <t>PRETIOSISSIMI SANGUINIS D.N.J.C.</t>
+  </si>
+  <si>
+    <t>Comm. diei Octavæ S. Joannis Baptistæ</t>
+  </si>
+  <si>
+    <t>Visitatio B.M.V.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Processi et Martiniani Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Leonis II Papæ et Conf.</t>
+  </si>
+  <si>
+    <t>S. Antonii Mariæ Zaccaria Conf.</t>
+  </si>
+  <si>
+    <t>Octava SS. Petri et Pauli Apostolorum.</t>
+  </si>
+  <si>
+    <t>SS. Cyrilli et Methodii Episc. Conf.</t>
+  </si>
+  <si>
+    <t>S. Elisabeth Reginæ, Viduæ.</t>
+  </si>
+  <si>
+    <t>SS. Septem Fratrum Martyrum et SS. Rufinæ et Secundæ Virgimum et Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Pii I Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Joannis Gualberti Abbatis.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Naboris et Felicis Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Anacleti Papæ Mart.</t>
+  </si>
+  <si>
+    <t>S. Bonaventuræ Eepisc. Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>S. Henrici Imperatoris, Conf.</t>
+  </si>
+  <si>
+    <t>Commemoratio B. Mariæ Virginis de Monte Carmelo.</t>
+  </si>
+  <si>
+    <t>S. Alexii Conf.</t>
+  </si>
+  <si>
+    <t>S. Camilli de Lellis Conf.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Symphorosæ et septem Filiorum ejus Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Vincentii a Paulo Conf.</t>
+  </si>
+  <si>
+    <t>S. Hieronymi Æmiliani Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Margaritæ Virg. et Mart.</t>
+  </si>
+  <si>
+    <t>S. Praxedis Virginis.</t>
+  </si>
+  <si>
+    <t>S. Mariæ Magdalenæ Pœnitentis.</t>
+  </si>
+  <si>
+    <t>S. Apollinaris Episc. Mart.</t>
+  </si>
+  <si>
+    <t>Comm. S. Liborii Ep. Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Christinæ Virginis et Martyris.</t>
+  </si>
+  <si>
+    <t>S. Jacobi Apostoli.</t>
+  </si>
+  <si>
+    <t>Comm. S. Christophori Martyr.</t>
+  </si>
+  <si>
+    <t>S. Annæ Matris B.M.V.</t>
+  </si>
+  <si>
+    <t>S. Pantaleonis Martyris.</t>
+  </si>
+  <si>
+    <t>SS. Nazarii et Celis Martyrum, Victoris I Papæ Mart. ac Innocentii I Papæ Conf.</t>
+  </si>
+  <si>
+    <t>S. Marthæ Virg.</t>
+  </si>
+  <si>
+    <t>Semid.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Felicis II Papæ, Simplicii, Faustini et Beatricis Martyrum.</t>
+  </si>
+  <si>
+    <t>SS. Abdon et Sennen Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Ignatii Conf.</t>
+  </si>
+  <si>
+    <t>août</t>
+  </si>
+  <si>
+    <t>S. Petri ad Vincula.</t>
+  </si>
+  <si>
+    <t>Comm. S. Pauli Ap. ac SS. Machabæorum Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Alpphonsi Mariæ de Ligorio Episc. Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>Comm. S. Stephani I Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>Inventio S. Stephani Protomartyris.</t>
+  </si>
+  <si>
+    <t>S. Dominici Conf.</t>
+  </si>
+  <si>
+    <t>Dedicatio S. Mariæ ad Nives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfiguratio D.N.J.C. </t>
+  </si>
+  <si>
+    <t>Comm. SS. Xysti II Papæ, Felicissimi et Agapiti Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Cajetani Conf.</t>
+  </si>
+  <si>
+    <t>Comm. S. Donatii Episc. Mart.</t>
+  </si>
+  <si>
+    <t>SS. Cyriaci, Largi et Smaragdi Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Joannis Mariæ Vianney Conf.</t>
+  </si>
+  <si>
+    <t>Comm. Vigiliæ et S. Romani Martyris.</t>
+  </si>
+  <si>
+    <t>S. Laurentii Martyris.</t>
+  </si>
+  <si>
+    <t>Duplex II classis cum Octava simplici.</t>
+  </si>
+  <si>
+    <t>SS. Tiburtii et Susannæ Virg., Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Claræ Virginis.</t>
+  </si>
+  <si>
+    <t>SS. Hippolyti et Cassiani Martyrum.</t>
+  </si>
+  <si>
+    <t>ASSUMPTIO B. MARIÆ VIRGINIS.</t>
+  </si>
+  <si>
+    <t>S. Joachim Patris B.M.V.</t>
+  </si>
+  <si>
+    <t>S. Hyacinthi Conf.</t>
+  </si>
+  <si>
+    <t>Comm. Octavæ Assumptionis ac diei Octavæ S. Laurentii Mart.</t>
+  </si>
+  <si>
+    <t>De Octava Assumptionis.</t>
+  </si>
+  <si>
+    <t>Comm. S. Agapiti Mart.</t>
+  </si>
+  <si>
+    <t>S. Joannis Eudes.</t>
+  </si>
+  <si>
+    <t>S. Bernardi Abbatis Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>S. Joannæ Franciscæ Fremiot de Chantal Viduæ.</t>
+  </si>
+  <si>
+    <t>Octava Assumptionis B.M.V.</t>
+  </si>
+  <si>
+    <t>Comm. SS Timothei, Hippolyti et Symphoriani Martyrum.</t>
+  </si>
+  <si>
+    <t>Immaculati Cordis B.M.V.</t>
+  </si>
+  <si>
+    <t>S. Philippi Benitii Conf.</t>
+  </si>
+  <si>
+    <t>S. Bartholomæi Apostoli.</t>
+  </si>
+  <si>
+    <t>S. Ludovici Regis, Conf.</t>
+  </si>
+  <si>
+    <t>S. Zephyrini Papæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Josephi Calasanctii Conf.</t>
+  </si>
+  <si>
+    <t>S. Augustini Episc. Conf. et Eccl. Doct.</t>
+  </si>
+  <si>
+    <t>Dupl.</t>
+  </si>
+  <si>
+    <t>Comm. S. Hermetis Martyris.</t>
+  </si>
+  <si>
+    <t>Decollatio S. Joannis Baptistæ.</t>
+  </si>
+  <si>
+    <t>Comm. S. Sabinæ Martyris.</t>
+  </si>
+  <si>
+    <t>S. Rosæ Limanæ Virginis</t>
+  </si>
+  <si>
+    <t>Comm. SS. Felicis et Adaucti Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Raymundi Nonnati Conf.</t>
+  </si>
+  <si>
+    <t>septembre</t>
+  </si>
+  <si>
+    <t>S. Ægidii Abbatis.</t>
+  </si>
+  <si>
+    <t>Comm. SS. Duodecim Fratrum Martyrum.</t>
+  </si>
+  <si>
+    <t>S. Stephani Hungariæ Regis, Conf.</t>
+  </si>
+  <si>
+    <t>St Pii X Papæ et Conf.</t>
+  </si>
+  <si>
+    <t>S. Laurentii Justiniani Episc. Conf.</t>
+  </si>
+  <si>
+    <t>Nativitas B. Mariæ Virginis.</t>
+  </si>
+  <si>
+    <t>Comm. S. Hadriani Martyris.</t>
+  </si>
+  <si>
+    <t>S. Gorgonii Martyris.</t>
+  </si>
+  <si>
+    <t>S. Nicolai a Tolentino.</t>
+  </si>
+  <si>
+    <t>SS. Proti et Hyacinthi Mart.</t>
+  </si>
+  <si>
+    <t>Ss. Nominis Mariæ.</t>
+  </si>
+  <si>
+    <t>Exaltatio S. Crucis.</t>
+  </si>
+  <si>
     <t>Septum Dolorum B. Mariæ Virginis</t>
   </si>
   <si>
-    <t>Comm. Feriæ.</t>
-  </si>
-  <si>
-    <t>avril</t>
-  </si>
-  <si>
-    <t>S. Francisci de Paula Conf.</t>
-  </si>
-  <si>
-    <t>S. Isidori Episc. Conf. et Eccl. Doctoris.</t>
-  </si>
-  <si>
-    <t>S. Leonis I Papæ, Conf. et Eccl. Doctoris.</t>
-  </si>
-  <si>
-    <t>S. Hermenegildi Martyris.</t>
-  </si>
-  <si>
-    <t>S. Justini Mart.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Tiburtii, Valeriani eet Maximi Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Aniceti I, Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Anselmi Episc. Conf. et Eccl. Doctoris.</t>
-  </si>
-  <si>
-    <t>SS. Soteris et Caji Pontif. Mart.</t>
-  </si>
-  <si>
-    <t>S. Georgii Martyris.</t>
-  </si>
-  <si>
-    <t>S. Fidelis a Sigmaringa Martyris.</t>
-  </si>
-  <si>
-    <t>S. Marci Evangelistæ.</t>
-  </si>
-  <si>
-    <t>SS. Cleti et Marcellini Pontif. Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Petri Canisii Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>S. Pauli a Cruce Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Vitalis Martyrris.</t>
-  </si>
-  <si>
-    <t>S. Petri Martyris.</t>
-  </si>
-  <si>
-    <t>S. Catharinæ Senensis Virginis.</t>
-  </si>
-  <si>
-    <t>Feria IV infra Hebdomadam II post octavam Paschæ.</t>
-  </si>
-  <si>
-    <t>SOLEMNITAS S. JOSEPH, Sponsi B.M.V., Conf. et Eccl. univers. Patroni.</t>
-  </si>
-  <si>
-    <t>Duplex I classis cum Octava communi.</t>
-  </si>
-  <si>
-    <t>Feria IV infra Hebdomadam III post octavam Paschæ.</t>
-  </si>
-  <si>
-    <t>Octava S. Joseph.</t>
-  </si>
-  <si>
-    <t>mai</t>
-  </si>
-  <si>
-    <t>SS. Philippi et Jacobi Apostolorum.</t>
-  </si>
-  <si>
-    <t>S. Athanasii Episc. Conf. et Eccl. Doctoris.</t>
-  </si>
-  <si>
-    <t>Inventio S. Crucis.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Alexandri I Papæ et Soc. Martyrum, ac S. Juvenalis Episc. Conf.</t>
-  </si>
-  <si>
-    <t>S. Monicæ Viduæ.</t>
-  </si>
-  <si>
-    <t>S. Pii V Papæ Conf.</t>
-  </si>
-  <si>
-    <t>S. Joannis Ap. ante Portam Latinam.</t>
-  </si>
-  <si>
-    <t>S. Stanislai Episc. Martyris.</t>
-  </si>
-  <si>
-    <t>Apparitio S. Michaelis Archangeli.</t>
-  </si>
-  <si>
-    <t>S. Grgeorii Nazianzni Episc. Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>S. Antonini Episc. Conf.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Gordiani et Epimachi Martyrum.</t>
-  </si>
-  <si>
-    <t>SS. Nerei, Achillei et Domitillæ Virginis, atque Pancratii Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Roberti Bellarmino Episc. Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>S. Bonifatii Martyris.</t>
-  </si>
-  <si>
-    <t>S. Joannis Baptistæ de la Salle Conf.</t>
-  </si>
-  <si>
-    <t>S. Ubaldi Episc. Conf.</t>
-  </si>
-  <si>
-    <t>S. Paschalis Baylon Conf.</t>
-  </si>
-  <si>
-    <t>S. Veenantii Martyris.</t>
-  </si>
-  <si>
-    <t>S. Petri Cœlstini Papæ Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Pudentianæ Virginis.</t>
-  </si>
-  <si>
-    <t>S. Bernardini Senensis Conf.</t>
-  </si>
-  <si>
-    <t>S. Gregorii VII Papæ Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Urbani I Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Philippi Nerii Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Eleutherii  Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Bedæ Venerabilis Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>Comm. S. Joannis I Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Augustini Episc. Conf.</t>
-  </si>
-  <si>
-    <t>S. Mariæ Magdalenæ de Pazzis Virg.</t>
-  </si>
-  <si>
-    <t>S. Felicis I Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Angelæ Mericiæ Virg.</t>
-  </si>
-  <si>
-    <t>Comm. S. Petronillæ Virg.</t>
-  </si>
-  <si>
-    <t>B. Mariæ Virginis Reginæ.</t>
-  </si>
-  <si>
-    <t>juin</t>
-  </si>
-  <si>
-    <t>SS. Marcellini, Petri atque Erasmi Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Francisci Caracciolo Conf.</t>
-  </si>
-  <si>
-    <t>S. Bonifatii Episc. Martyris.</t>
-  </si>
-  <si>
-    <t>S. Norberti Episc. Conf.</t>
-  </si>
-  <si>
-    <t>SS. Primi et Feliciani Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Margaritæ Reginæ Viduæ.</t>
-  </si>
-  <si>
-    <t>S. Barnabæ Apostoli.</t>
-  </si>
-  <si>
-    <t>S. Joannis a S. Facundo Conf.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Basilidis, Cyrini, Naboris et Nazarii Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Antonii de Padua Conf. (et Eccl. Doct.)</t>
-  </si>
-  <si>
-    <t>S. Basilii Magni Episc. Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>SS Viti, Moodesti atque Crescentiæ Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Ephraem Syri Diac., Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>S. Julianæ de Falconeriis Virginis.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Gervasii et Protasii Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Silverii Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Aloisii Gonzagæ Conf.</t>
-  </si>
-  <si>
-    <t>S. Paulini Episc. Conf.</t>
-  </si>
-  <si>
-    <t>Vigilia.</t>
-  </si>
-  <si>
-    <t>NATIVITAS S. JOANNIS BAPTISTÆ.</t>
-  </si>
-  <si>
-    <t>S. Gulielmi Abbatis.</t>
-  </si>
-  <si>
-    <t>Comm. octavæ.</t>
-  </si>
-  <si>
-    <t>SS. Joannis et Pauli Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Irenæi Episc. et Martyr.</t>
-  </si>
-  <si>
-    <t>Comm. octavæ et vigiliæ.</t>
-  </si>
-  <si>
-    <t>SS. PETRI ET PAULI APOSTOLORUM.</t>
-  </si>
-  <si>
-    <t>Commemoratio S. Pauli Apostoli.</t>
-  </si>
-  <si>
-    <t>Comm. S. Petri Apostoli et Octavæ S. Joannis Baptistæ.</t>
-  </si>
-  <si>
-    <t>juillet</t>
-  </si>
-  <si>
-    <t>PRETIOSISSIMI SANGUINIS D.N.J.C.</t>
-  </si>
-  <si>
-    <t>Comm. diei Octavæ S. Joannis Baptistæ</t>
-  </si>
-  <si>
-    <t>VISITATIO B.M.V.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Processi et Martiniani Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Leonis II Papæ et Conf.</t>
-  </si>
-  <si>
-    <t>S. Antonii Mariæ Zaccaria Conf.</t>
-  </si>
-  <si>
-    <t>Octava SS. Petri et Pauli Apostolorum.</t>
-  </si>
-  <si>
-    <t>SS. Cyrilli et Methodii Episc. Conf.</t>
-  </si>
-  <si>
-    <t>S. Elisabeth Reginæ, Viduæ.</t>
-  </si>
-  <si>
-    <t>SS. Septem Fratrum Martyrum et SS. Rufinæ et Secundæ Virgimum et Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Pii I Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Joannis Gualberti Abbatis.</t>
-  </si>
-  <si>
-    <t>Comm. SS&gt; Naboris et Felicis Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Anacleti Papæ Mart.</t>
-  </si>
-  <si>
-    <t>S. Bonaventuræ Eepisc. Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>S. Henrici Imperatoris, Conf.</t>
-  </si>
-  <si>
-    <t>Commemoratio B. Mariæ Virginis de Monte Carmelo.</t>
-  </si>
-  <si>
-    <t>S. Alexii Conf.</t>
-  </si>
-  <si>
-    <t>S. Camilli de Lellis Conf.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Symphorosæ et septem Filiorum ejus Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Vincentii a Paulo Conf.</t>
-  </si>
-  <si>
-    <t>S. Hieronymi Æmiliani Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Margaritæ Virg. t Mart.</t>
-  </si>
-  <si>
-    <t>S. Praxedis Virginis.</t>
-  </si>
-  <si>
-    <t>S. Mariæ Magdalenæ Pœnitentis.</t>
-  </si>
-  <si>
-    <t>S. Apollinaris Episc. Mart.</t>
-  </si>
-  <si>
-    <t>Comm. S. Liboorii Ep. Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Christinæ Virginis et Martyris.</t>
-  </si>
-  <si>
-    <t>S. Jacobi Apostoli.</t>
-  </si>
-  <si>
-    <t>Comm. S. Christophori Martyr.</t>
-  </si>
-  <si>
-    <t>S. Annæ Matris B.M.V.</t>
-  </si>
-  <si>
-    <t>S. Pantaleonis Martyris</t>
-  </si>
-  <si>
-    <t>SS. Nazarii et Celis Martyrum, Victoris I Papæ Mart. ac Innocentii I Papæ Conf.</t>
-  </si>
-  <si>
-    <t>S. Marthæ Virg.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Felicis II Papæ, Simplici.i, Faustini et Beatricis Martyrum.</t>
-  </si>
-  <si>
-    <t>SS. Abdon et Sennen Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Ignatii Conf.</t>
-  </si>
-  <si>
-    <t>août</t>
-  </si>
-  <si>
-    <t>S. Petri ad Vincula.</t>
-  </si>
-  <si>
-    <t>Comm. S. Pauli Ap. ac SS. Machabæorum Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Alpphonsi Mariæ de Ligorio Episc. Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>Comm. S. Stephani I Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>Inventio S. Stphani Protomartyris.</t>
-  </si>
-  <si>
-    <t>S. Dominici Conf.</t>
-  </si>
-  <si>
-    <t>Dedicatio S. Mariæ ad Nives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfiguratio D.N.J.C. </t>
-  </si>
-  <si>
-    <t>Comm. SS. Xysti II Papæ, Felicissimi et Agapiti Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Cajetani Conf.</t>
-  </si>
-  <si>
-    <t>Comm. S. Donatii Episc. Mart.</t>
-  </si>
-  <si>
-    <t>SS. Cyriaci, Largi et Smaragdi Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Joannis Mariæ Vianney Conf.</t>
-  </si>
-  <si>
-    <t>Comm. Vigiliæ et S. Romani Martyris.</t>
-  </si>
-  <si>
-    <t>S. Laurentii Martyris.</t>
-  </si>
-  <si>
-    <t>Duplex II classis cum Octava simplici.</t>
-  </si>
-  <si>
-    <t>SS. Tiburtii et Susannæ Virg., Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Claræ Virginis</t>
-  </si>
-  <si>
-    <t>SS. Hippolyti et Cassiani Martyrum.</t>
-  </si>
-  <si>
-    <t>ASSUMPTIO B. MARIÆ ViRGINIS.</t>
-  </si>
-  <si>
-    <t>S. Joachim Patris B.M.V.</t>
-  </si>
-  <si>
-    <t>S. Hyacinthi Conf.</t>
-  </si>
-  <si>
-    <t>Comm. Octavæ Assumptionis ac diei Octavæ S. Laurentii Mart.</t>
-  </si>
-  <si>
-    <t>De Octava Assumptionis.</t>
-  </si>
-  <si>
-    <t>Comm. S. Agapiti Mart.</t>
-  </si>
-  <si>
-    <t>S. Joannis Eudes.</t>
-  </si>
-  <si>
-    <t>S. Bernardi Abbatis Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>S. Joannæ Franciscæ Fremiot de Chantal Viduæ.</t>
-  </si>
-  <si>
-    <t>Octava Assumptionis B.M.V.</t>
-  </si>
-  <si>
-    <t>Comm. SS Timothei, Hippolyti et Symphoriani Martyrum.</t>
-  </si>
-  <si>
-    <t>Immaculati Cordis B.M.V.</t>
-  </si>
-  <si>
-    <t>S. Philippi Benitii Conf.</t>
-  </si>
-  <si>
-    <t>S. Bartholomæi Apostoli.</t>
-  </si>
-  <si>
-    <t>S. Ludovici Regis, Conf.</t>
-  </si>
-  <si>
-    <t>S. Zephyrini Papæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Josephi Calasanctii Conf.</t>
-  </si>
-  <si>
-    <t>S. Augustini Episc. Conf. et Eccl. Doct.</t>
-  </si>
-  <si>
-    <t>Comm. S. Hermetis Martyris.</t>
-  </si>
-  <si>
-    <t>Decollatio S. Joannis Baptistæ.</t>
-  </si>
-  <si>
-    <t>Comm. S. Sabinæ Martyris.</t>
-  </si>
-  <si>
-    <t>S. Rosæ Limanæ Virginis</t>
-  </si>
-  <si>
-    <t>Comm. SS. Felicis et Adaucti Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Raymundi Nonnati Conf.</t>
-  </si>
-  <si>
-    <t>septembre</t>
-  </si>
-  <si>
-    <t>S. Ægidii Abbatis.</t>
-  </si>
-  <si>
-    <t>Comm. SS. Duodecim Fratrum Martyrum.</t>
-  </si>
-  <si>
-    <t>S. Stephani Hungariæ Regis, Conf.</t>
-  </si>
-  <si>
-    <t>St Pii X Papæ et Conf.</t>
-  </si>
-  <si>
-    <t>S. Laurentii Justiniani Episc. Conf.</t>
-  </si>
-  <si>
-    <t>Nativitas B. Mariæ Virginis.</t>
-  </si>
-  <si>
-    <t>Comm. S. Hadriani Martyris.</t>
-  </si>
-  <si>
-    <t>S. Gorgonii Martyris.</t>
-  </si>
-  <si>
-    <t>S. Nicolai a Tolentino.</t>
-  </si>
-  <si>
-    <t>SS. Proti et Hyacinthi Mart.</t>
-  </si>
-  <si>
-    <t>Ss. Nominis Mariæ.</t>
-  </si>
-  <si>
-    <t>Exaltatio S. Crucis.</t>
-  </si>
-  <si>
     <t>Comm. S. Nicomedis Mart.</t>
   </si>
   <si>
@@ -964,7 +985,7 @@
     <t>SS. Januarii Episcopi et Soc. Martyrum.</t>
   </si>
   <si>
-    <t>SS. Eustachii eet Soc. Martyrum.</t>
+    <t>SS. Eustachii et Soc. Martyrum.</t>
   </si>
   <si>
     <t>S. Matthæi Apostoli et Evangelistæ.</t>
@@ -1009,7 +1030,7 @@
     <t>SS. Angelorum Custodum.</t>
   </si>
   <si>
-    <t xml:space="preserve"> S. Teresiæ a Jesu Infante Virg.</t>
+    <t>S. Teresiæ a Jesu Infante Virg.</t>
   </si>
   <si>
     <t>S. Francisci Confessoris.</t>
@@ -1018,7 +1039,7 @@
     <t>SS. Placidi et Sociorum Martyrum.</t>
   </si>
   <si>
-    <t>S. Brunonsis Confessoris.</t>
+    <t>S. Brunonis Confessoris.</t>
   </si>
   <si>
     <t>Sacratissimi Rosarii B.M.V.</t>
@@ -1033,7 +1054,7 @@
     <t>S. Joannis Leonardi Conf.</t>
   </si>
   <si>
-    <t>Comm. SS. Dionysii, Episc., Rustici eet Eleutherii Mar.</t>
+    <t>Comm. SS. Dionysii, Episc., Rustici et Eleutherii Mart.</t>
   </si>
   <si>
     <t>S. Francisci Borgiæ Confessoris.</t>
@@ -1069,6 +1090,9 @@
     <t>S. Hilarionis Abbatis.</t>
   </si>
   <si>
+    <t>Comm. SS. Ursulæ ac Sociarum Virginum et Martyrum.</t>
+  </si>
+  <si>
     <t>S. Raphaelis Archangelis.</t>
   </si>
   <si>
@@ -1087,7 +1111,7 @@
     <t>Dominica ultima Octobris.</t>
   </si>
   <si>
-    <t>FESTUM D.M. JESU CHRISTI REGIS.</t>
+    <t>FESTUM D.N. JESU CHRISTI REGIS.</t>
   </si>
   <si>
     <t>novembre</t>
@@ -1105,7 +1129,7 @@
     <t>S. Caroli Episc. Conf.</t>
   </si>
   <si>
-    <t>Comm. octavæ ac SS. Vitalis et Agricolæ Martyrum.</t>
+    <t>Comm. Octavæ ac SS. Vitalis et Agricolæ Martyrum.</t>
   </si>
   <si>
     <t>Octava Omnium Sanctorum.</t>
@@ -1126,7 +1150,7 @@
     <t>Comm. SS. Tryphonis et Sociorum Martyrum.</t>
   </si>
   <si>
-    <t>S. Martin I Episc. Conf.</t>
+    <t>S. Martini Episc. Conf.</t>
   </si>
   <si>
     <t>Comm. S. Mennæ Mart.</t>
@@ -1150,7 +1174,7 @@
     <t>S. Gregorii Thaumaturgi Episc. Conf.</t>
   </si>
   <si>
-    <t>Ddicatio Basilicarum SS. Peetri et Pauli Apost.</t>
+    <t>Dedicatio Basilicarum SS. Petri et Pauli Apost.</t>
   </si>
   <si>
     <t>S. Elisabeth Viduæ.</t>
@@ -1189,7 +1213,7 @@
     <t>S. Petri Alexandrini Episc. Martyris.</t>
   </si>
   <si>
-    <t>Comm. S Saturnini Martyris.</t>
+    <t>Comm. S. Saturnini Martyris.</t>
   </si>
   <si>
     <t>S. Andreæ Apostoli.</t>
@@ -1219,7 +1243,7 @@
     <t>S. Ambrosii Episc. Conf. et Eccl. Doct.</t>
   </si>
   <si>
-    <t>CONCEPTIO IMMACULATA B. MARIÆ VIRGINIS</t>
+    <t>CONCEPTIO IMMACULATA B. MARIÆ VIRGINIS.</t>
   </si>
   <si>
     <t>De Octava Conceptionis.</t>
@@ -2700,7 +2724,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" ht="56" customHeight="1">
+    <row r="4" ht="56.05" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -2826,15 +2850,19 @@
       <c r="E10" t="s" s="12">
         <v>32</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="9"/>
+      <c r="F10" t="s" s="13">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s" s="12">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" ht="32" customHeight="1">
       <c r="A11" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="15">
         <v>7</v>
@@ -2843,10 +2871,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -2855,7 +2883,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="15">
         <v>8</v>
@@ -2864,10 +2892,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F12" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -2876,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="15">
         <v>9</v>
@@ -2885,10 +2913,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F13" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -2906,10 +2934,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F14" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -2927,13 +2955,13 @@
         <v>10</v>
       </c>
       <c r="E15" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="F15" t="s" s="13">
-        <v>36</v>
-      </c>
       <c r="G15" t="s" s="12">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -2950,10 +2978,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F16" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -2962,7 +2990,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="15">
         <v>13</v>
@@ -2971,19 +2999,19 @@
         <v>10</v>
       </c>
       <c r="E17" t="s" s="12">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" ht="44" customHeight="1">
       <c r="A18" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="15">
         <v>14</v>
@@ -2992,13 +3020,13 @@
         <v>10</v>
       </c>
       <c r="E18" t="s" s="12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="32.05" customHeight="1">
@@ -3006,7 +3034,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="15">
         <v>15</v>
@@ -3015,21 +3043,21 @@
         <v>10</v>
       </c>
       <c r="E19" t="s" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="32" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="32.05" customHeight="1">
       <c r="A20" t="s" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="15">
         <v>16</v>
@@ -3038,10 +3066,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s" s="12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s" s="13">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -3050,7 +3078,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="15">
         <v>17</v>
@@ -3058,8 +3086,12 @@
       <c r="D21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="16"/>
+      <c r="E21" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s" s="13">
+        <v>47</v>
+      </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" ht="44.05" customHeight="1">
@@ -3067,7 +3099,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15">
         <v>18</v>
@@ -3076,13 +3108,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s" s="12">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="56" customHeight="1">
@@ -3090,7 +3122,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="15">
         <v>19</v>
@@ -3099,13 +3131,13 @@
         <v>10</v>
       </c>
       <c r="E23" t="s" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s" s="13">
         <v>17</v>
       </c>
       <c r="G23" t="s" s="12">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" ht="44" customHeight="1">
@@ -3113,7 +3145,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="15">
         <v>20</v>
@@ -3122,19 +3154,19 @@
         <v>10</v>
       </c>
       <c r="E24" t="s" s="12">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" ht="32" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" s="15">
         <v>21</v>
@@ -3143,10 +3175,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="s" s="12">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -3155,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="15">
         <v>22</v>
@@ -3164,10 +3196,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="s" s="12">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -3176,7 +3208,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="15">
         <v>23</v>
@@ -3185,21 +3217,21 @@
         <v>10</v>
       </c>
       <c r="E27" t="s" s="12">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s" s="12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="32" customHeight="1">
       <c r="A28" t="s" s="12">
         <v>18</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="15">
         <v>24</v>
@@ -3207,8 +3239,12 @@
       <c r="D28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
+      <c r="E28" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s" s="13">
+        <v>47</v>
+      </c>
       <c r="G28" s="9"/>
     </row>
     <row r="29" ht="32" customHeight="1">
@@ -3225,11 +3261,11 @@
         <v>10</v>
       </c>
       <c r="E29" t="s" s="12">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" t="s" s="12">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" ht="32" customHeight="1">
@@ -3237,7 +3273,7 @@
         <v>24</v>
       </c>
       <c r="B30" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" s="15">
         <v>26</v>
@@ -3246,10 +3282,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="s" s="12">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -3258,7 +3294,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="15">
         <v>27</v>
@@ -3267,19 +3303,19 @@
         <v>10</v>
       </c>
       <c r="E31" t="s" s="12">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31" s="9"/>
     </row>
     <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="15">
         <v>28</v>
@@ -3288,13 +3324,13 @@
         <v>10</v>
       </c>
       <c r="E32" t="s" s="12">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s" s="12">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" ht="56" customHeight="1">
@@ -3311,10 +3347,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="s" s="12">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G33" s="9"/>
     </row>
@@ -3332,10 +3368,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="s" s="12">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F34" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G34" s="9"/>
     </row>
@@ -3353,10 +3389,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="s" s="12">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G35" s="9"/>
     </row>
@@ -3380,13 +3416,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s" s="12">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" s="9"/>
     </row>
@@ -3401,10 +3437,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s" s="12">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s" s="13">
         <v>12</v>
@@ -3422,10 +3458,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s" s="12">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="13">
         <v>17</v>
@@ -3434,7 +3470,7 @@
     </row>
     <row r="40" ht="32" customHeight="1">
       <c r="A40" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s" s="14">
         <v>22</v>
@@ -3443,13 +3479,13 @@
         <v>4</v>
       </c>
       <c r="D40" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s" s="12">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G40" s="9"/>
     </row>
@@ -3464,13 +3500,13 @@
         <v>5</v>
       </c>
       <c r="D41" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s" s="12">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -3485,36 +3521,36 @@
         <v>6</v>
       </c>
       <c r="D42" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s" s="12">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s" s="12">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" ht="32" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" ht="32.05" customHeight="1">
       <c r="A43" t="s" s="12">
         <v>18</v>
       </c>
       <c r="B43" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C43" s="15">
         <v>7</v>
       </c>
       <c r="D43" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s" s="12">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G43" s="9"/>
     </row>
@@ -3523,19 +3559,19 @@
         <v>21</v>
       </c>
       <c r="B44" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C44" s="15">
         <v>8</v>
       </c>
       <c r="D44" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s" s="12">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G44" s="9"/>
     </row>
@@ -3544,22 +3580,22 @@
         <v>24</v>
       </c>
       <c r="B45" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C45" s="15">
         <v>9</v>
       </c>
       <c r="D45" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s" s="12">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s" s="12">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" ht="32" customHeight="1">
@@ -3573,19 +3609,19 @@
         <v>10</v>
       </c>
       <c r="D46" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s" s="12">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G46" s="9"/>
     </row>
     <row r="47" ht="44" customHeight="1">
       <c r="A47" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s" s="14">
         <v>19</v>
@@ -3594,17 +3630,17 @@
         <v>11</v>
       </c>
       <c r="D47" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s" s="12">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" ht="44" customHeight="1">
+    <row r="48" ht="56.05" customHeight="1">
       <c r="A48" t="s" s="12">
         <v>8</v>
       </c>
@@ -3615,13 +3651,13 @@
         <v>12</v>
       </c>
       <c r="D48" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s" s="12">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G48" s="9"/>
     </row>
@@ -3630,13 +3666,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C49" s="15">
         <v>13</v>
       </c>
       <c r="D49" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="16"/>
@@ -3647,16 +3683,16 @@
         <v>18</v>
       </c>
       <c r="B50" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="15">
         <v>14</v>
       </c>
       <c r="D50" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s" s="12">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s" s="13">
         <v>17</v>
@@ -3668,16 +3704,16 @@
         <v>21</v>
       </c>
       <c r="B51" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15">
         <v>15</v>
       </c>
       <c r="D51" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s" s="12">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s" s="13">
         <v>17</v>
@@ -3689,13 +3725,13 @@
         <v>24</v>
       </c>
       <c r="B52" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C52" s="15">
         <v>16</v>
       </c>
       <c r="D52" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="16"/>
@@ -3706,13 +3742,13 @@
         <v>27</v>
       </c>
       <c r="B53" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C53" s="15">
         <v>17</v>
       </c>
       <c r="D53" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="16"/>
@@ -3720,19 +3756,19 @@
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" s="15">
         <v>18</v>
       </c>
       <c r="D54" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E54" t="s" s="12">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s" s="13">
         <v>17</v>
@@ -3744,13 +3780,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C55" s="15">
         <v>19</v>
       </c>
       <c r="D55" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="16"/>
@@ -3761,13 +3797,13 @@
         <v>14</v>
       </c>
       <c r="B56" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" s="15">
         <v>20</v>
       </c>
       <c r="D56" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="16"/>
@@ -3778,13 +3814,13 @@
         <v>18</v>
       </c>
       <c r="B57" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="15">
         <v>21</v>
       </c>
       <c r="D57" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="16"/>
@@ -3801,16 +3837,16 @@
         <v>22</v>
       </c>
       <c r="D58" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s" s="12">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s" s="12">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" ht="44" customHeight="1">
@@ -3818,22 +3854,22 @@
         <v>24</v>
       </c>
       <c r="B59" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" s="15">
         <v>23</v>
       </c>
       <c r="D59" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s" s="12">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F59" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s" s="12">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" ht="32" customHeight="1">
@@ -3841,16 +3877,16 @@
         <v>27</v>
       </c>
       <c r="B60" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60" s="15">
         <v>24</v>
       </c>
       <c r="D60" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s" s="12">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F60" t="s" s="13">
         <v>12</v>
@@ -3859,16 +3895,16 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C61" s="15">
         <v>25</v>
       </c>
       <c r="D61" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="16"/>
@@ -3885,7 +3921,7 @@
         <v>26</v>
       </c>
       <c r="D62" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="16"/>
@@ -3902,13 +3938,13 @@
         <v>27</v>
       </c>
       <c r="D63" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E63" t="s" s="12">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63" s="9"/>
     </row>
@@ -3923,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="D64" t="s" s="12">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="16"/>
@@ -3949,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="16"/>
@@ -3960,13 +3996,13 @@
         <v>24</v>
       </c>
       <c r="B67" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C67" s="15">
         <v>2</v>
       </c>
       <c r="D67" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="16"/>
@@ -3977,13 +4013,13 @@
         <v>27</v>
       </c>
       <c r="B68" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" s="15">
         <v>3</v>
       </c>
       <c r="D68" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="16"/>
@@ -3991,7 +4027,7 @@
     </row>
     <row r="69" ht="32.05" customHeight="1">
       <c r="A69" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s" s="14">
         <v>15</v>
@@ -4000,16 +4036,16 @@
         <v>4</v>
       </c>
       <c r="D69" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s" s="12">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F69" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s" s="12">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -4023,7 +4059,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="16"/>
@@ -4040,13 +4076,13 @@
         <v>6</v>
       </c>
       <c r="D71" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s" s="12">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F71" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G71" s="9"/>
     </row>
@@ -4061,13 +4097,13 @@
         <v>7</v>
       </c>
       <c r="D72" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E72" t="s" s="12">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G72" s="9"/>
     </row>
@@ -4082,13 +4118,13 @@
         <v>8</v>
       </c>
       <c r="D73" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E73" t="s" s="12">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F73" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G73" s="9"/>
     </row>
@@ -4097,19 +4133,19 @@
         <v>24</v>
       </c>
       <c r="B74" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C74" s="15">
         <v>9</v>
       </c>
       <c r="D74" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s" s="12">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F74" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G74" s="9"/>
     </row>
@@ -4118,34 +4154,34 @@
         <v>27</v>
       </c>
       <c r="B75" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C75" s="15">
         <v>10</v>
       </c>
       <c r="D75" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s" s="12">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F75" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C76" s="15">
         <v>11</v>
       </c>
       <c r="D76" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="16"/>
@@ -4162,13 +4198,13 @@
         <v>12</v>
       </c>
       <c r="D77" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s" s="12">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F77" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G77" s="9"/>
     </row>
@@ -4183,7 +4219,7 @@
         <v>13</v>
       </c>
       <c r="D78" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="16"/>
@@ -4200,7 +4236,7 @@
         <v>14</v>
       </c>
       <c r="D79" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="16"/>
@@ -4211,13 +4247,13 @@
         <v>21</v>
       </c>
       <c r="B80" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C80" s="15">
         <v>15</v>
       </c>
       <c r="D80" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="16"/>
@@ -4228,13 +4264,13 @@
         <v>24</v>
       </c>
       <c r="B81" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C81" s="15">
         <v>16</v>
       </c>
       <c r="D81" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="16"/>
@@ -4245,61 +4281,61 @@
         <v>27</v>
       </c>
       <c r="B82" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" s="15">
         <v>17</v>
       </c>
       <c r="D82" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s" s="12">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F82" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G82" s="9"/>
     </row>
     <row r="83" ht="56" customHeight="1">
       <c r="A83" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C83" s="15">
         <v>18</v>
       </c>
       <c r="D83" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s" s="12">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F83" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" ht="44" customHeight="1">
+    <row r="84" ht="32.05" customHeight="1">
       <c r="A84" t="s" s="12">
         <v>8</v>
       </c>
       <c r="B84" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84" s="15">
         <v>19</v>
       </c>
       <c r="D84" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s" s="12">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F84" t="s" s="13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G84" s="9"/>
     </row>
@@ -4308,13 +4344,13 @@
         <v>14</v>
       </c>
       <c r="B85" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C85" s="15">
         <v>20</v>
       </c>
       <c r="D85" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="16"/>
@@ -4325,19 +4361,19 @@
         <v>18</v>
       </c>
       <c r="B86" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C86" s="15">
         <v>21</v>
       </c>
       <c r="D86" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s" s="12">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F86" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G86" s="9"/>
     </row>
@@ -4346,13 +4382,13 @@
         <v>21</v>
       </c>
       <c r="B87" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C87" s="15">
         <v>22</v>
       </c>
       <c r="D87" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="16"/>
@@ -4363,13 +4399,13 @@
         <v>24</v>
       </c>
       <c r="B88" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C88" s="15">
         <v>23</v>
       </c>
       <c r="D88" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="16"/>
@@ -4380,25 +4416,25 @@
         <v>27</v>
       </c>
       <c r="B89" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C89" s="15">
         <v>24</v>
       </c>
       <c r="D89" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s" s="12">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F89" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G89" s="9"/>
     </row>
     <row r="90" ht="32" customHeight="1">
       <c r="A90" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B90" t="s" s="14">
         <v>28</v>
@@ -4407,13 +4443,13 @@
         <v>25</v>
       </c>
       <c r="D90" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="F90" t="s" s="13">
         <v>119</v>
-      </c>
-      <c r="F90" t="s" s="13">
-        <v>116</v>
       </c>
       <c r="G90" s="9"/>
     </row>
@@ -4422,13 +4458,13 @@
         <v>8</v>
       </c>
       <c r="B91" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C91" s="15">
         <v>26</v>
       </c>
       <c r="D91" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="16"/>
@@ -4439,19 +4475,19 @@
         <v>14</v>
       </c>
       <c r="B92" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C92" s="15">
         <v>27</v>
       </c>
       <c r="D92" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s" s="12">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F92" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G92" s="9"/>
     </row>
@@ -4460,19 +4496,19 @@
         <v>18</v>
       </c>
       <c r="B93" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C93" s="15">
         <v>28</v>
       </c>
       <c r="D93" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E93" t="s" s="12">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F93" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G93" s="9"/>
     </row>
@@ -4487,7 +4523,7 @@
         <v>29</v>
       </c>
       <c r="D94" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="16"/>
@@ -4504,7 +4540,7 @@
         <v>30</v>
       </c>
       <c r="D95" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="16"/>
@@ -4521,27 +4557,27 @@
         <v>31</v>
       </c>
       <c r="D96" t="s" s="12">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="16"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" ht="32" customHeight="1">
+    <row r="97" ht="32.05" customHeight="1">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
       <c r="D97" t="s" s="12">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E97" t="s" s="12">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F97" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s" s="12">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -4555,7 +4591,7 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s" s="14">
         <v>9</v>
@@ -4564,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="16"/>
@@ -4581,13 +4617,13 @@
         <v>2</v>
       </c>
       <c r="D100" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E100" t="s" s="12">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F100" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G100" s="9"/>
     </row>
@@ -4602,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="D101" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="16"/>
@@ -4619,17 +4655,17 @@
         <v>4</v>
       </c>
       <c r="D102" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E102" t="s" s="12">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F102" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" ht="20.05" customHeight="1">
+    <row r="103" ht="32.05" customHeight="1">
       <c r="A103" t="s" s="12">
         <v>21</v>
       </c>
@@ -4640,11 +4676,13 @@
         <v>5</v>
       </c>
       <c r="D103" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="E103" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="E103" t="s" s="12">
+        <v>131</v>
+      </c>
       <c r="F103" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G103" s="9"/>
     </row>
@@ -4659,7 +4697,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="16"/>
@@ -4670,13 +4708,13 @@
         <v>27</v>
       </c>
       <c r="B105" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C105" s="15">
         <v>7</v>
       </c>
       <c r="D105" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="16"/>
@@ -4684,16 +4722,16 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C106" s="15">
         <v>8</v>
       </c>
       <c r="D106" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="16"/>
@@ -4704,13 +4742,13 @@
         <v>8</v>
       </c>
       <c r="B107" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C107" s="15">
         <v>9</v>
       </c>
       <c r="D107" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="16"/>
@@ -4727,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="D108" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="16"/>
@@ -4744,13 +4782,13 @@
         <v>11</v>
       </c>
       <c r="D109" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E109" t="s" s="12">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F109" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G109" s="9"/>
     </row>
@@ -4765,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="D110" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="16"/>
@@ -4776,19 +4814,19 @@
         <v>24</v>
       </c>
       <c r="B111" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C111" s="15">
         <v>13</v>
       </c>
       <c r="D111" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E111" t="s" s="12">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F111" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" s="9"/>
     </row>
@@ -4797,36 +4835,36 @@
         <v>27</v>
       </c>
       <c r="B112" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C112" s="15">
         <v>14</v>
       </c>
       <c r="D112" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E112" t="s" s="12">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F112" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s" s="12">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C113" s="15">
         <v>15</v>
       </c>
       <c r="D113" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="16"/>
@@ -4837,13 +4875,13 @@
         <v>8</v>
       </c>
       <c r="B114" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C114" s="15">
         <v>16</v>
       </c>
       <c r="D114" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="16"/>
@@ -4854,16 +4892,16 @@
         <v>14</v>
       </c>
       <c r="B115" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C115" s="15">
         <v>17</v>
       </c>
       <c r="D115" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E115" t="s" s="12">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F115" t="s" s="13">
         <v>17</v>
@@ -4875,13 +4913,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C116" s="15">
         <v>18</v>
       </c>
       <c r="D116" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="16"/>
@@ -4892,13 +4930,13 @@
         <v>21</v>
       </c>
       <c r="B117" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C117" s="15">
         <v>19</v>
       </c>
       <c r="D117" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="16"/>
@@ -4909,13 +4947,13 @@
         <v>24</v>
       </c>
       <c r="B118" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C118" s="15">
         <v>20</v>
       </c>
       <c r="D118" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="16"/>
@@ -4926,40 +4964,40 @@
         <v>27</v>
       </c>
       <c r="B119" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C119" s="15">
         <v>21</v>
       </c>
       <c r="D119" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E119" t="s" s="12">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F119" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G119" s="9"/>
     </row>
     <row r="120" ht="32" customHeight="1">
       <c r="A120" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C120" s="15">
         <v>22</v>
       </c>
       <c r="D120" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s" s="12">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F120" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G120" s="9"/>
     </row>
@@ -4968,19 +5006,19 @@
         <v>8</v>
       </c>
       <c r="B121" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C121" s="15">
         <v>23</v>
       </c>
       <c r="D121" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E121" t="s" s="12">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F121" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G121" s="9"/>
     </row>
@@ -4995,13 +5033,13 @@
         <v>24</v>
       </c>
       <c r="D122" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E122" t="s" s="12">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F122" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G122" s="9"/>
     </row>
@@ -5010,16 +5048,16 @@
         <v>18</v>
       </c>
       <c r="B123" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C123" s="15">
         <v>25</v>
       </c>
       <c r="D123" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E123" t="s" s="12">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F123" t="s" s="13">
         <v>12</v>
@@ -5031,19 +5069,19 @@
         <v>21</v>
       </c>
       <c r="B124" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C124" s="15">
         <v>26</v>
       </c>
       <c r="D124" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E124" t="s" s="12">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F124" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G124" s="9"/>
     </row>
@@ -5052,19 +5090,19 @@
         <v>24</v>
       </c>
       <c r="B125" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C125" s="15">
         <v>27</v>
       </c>
       <c r="D125" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E125" t="s" s="12">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F125" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G125" s="9"/>
     </row>
@@ -5079,21 +5117,21 @@
         <v>28</v>
       </c>
       <c r="D126" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E126" t="s" s="12">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F126" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G126" t="s" s="12">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B127" t="s" s="14">
         <v>19</v>
@@ -5102,13 +5140,13 @@
         <v>29</v>
       </c>
       <c r="D127" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E127" t="s" s="12">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F127" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G127" s="9"/>
     </row>
@@ -5123,13 +5161,13 @@
         <v>30</v>
       </c>
       <c r="D128" t="s" s="12">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E128" t="s" s="12">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F128" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G128" s="9"/>
     </row>
@@ -5138,13 +5176,13 @@
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" t="s" s="12">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E129" t="s" s="12">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F129" t="s" s="13">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G129" s="9"/>
     </row>
@@ -5153,13 +5191,13 @@
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" t="s" s="12">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E130" t="s" s="12">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F130" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G130" s="9"/>
     </row>
@@ -5190,7 +5228,7 @@
       <c r="F133" s="16"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" ht="44" customHeight="1">
+    <row r="134" ht="44.05" customHeight="1">
       <c r="A134" t="s" s="12">
         <v>14</v>
       </c>
@@ -5201,10 +5239,10 @@
         <v>1</v>
       </c>
       <c r="D134" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E134" t="s" s="12">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F134" t="s" s="13">
         <v>12</v>
@@ -5216,19 +5254,19 @@
         <v>18</v>
       </c>
       <c r="B135" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C135" s="15">
         <v>2</v>
       </c>
       <c r="D135" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E135" t="s" s="12">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F135" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G135" s="9"/>
     </row>
@@ -5237,22 +5275,22 @@
         <v>21</v>
       </c>
       <c r="B136" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C136" s="15">
         <v>3</v>
       </c>
       <c r="D136" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E136" t="s" s="12">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F136" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G136" t="s" s="12">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" ht="32" customHeight="1">
@@ -5266,13 +5304,13 @@
         <v>4</v>
       </c>
       <c r="D137" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E137" t="s" s="12">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F137" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G137" s="9"/>
     </row>
@@ -5287,19 +5325,19 @@
         <v>5</v>
       </c>
       <c r="D138" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E138" t="s" s="12">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F138" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G138" s="9"/>
     </row>
     <row r="139" ht="44" customHeight="1">
       <c r="A139" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B139" t="s" s="14">
         <v>22</v>
@@ -5308,13 +5346,13 @@
         <v>6</v>
       </c>
       <c r="D139" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E139" t="s" s="12">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F139" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G139" s="9"/>
     </row>
@@ -5329,13 +5367,13 @@
         <v>7</v>
       </c>
       <c r="D140" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E140" t="s" s="12">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F140" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G140" s="9"/>
     </row>
@@ -5350,13 +5388,13 @@
         <v>8</v>
       </c>
       <c r="D141" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E141" t="s" s="12">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F141" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G141" s="9"/>
     </row>
@@ -5365,19 +5403,19 @@
         <v>18</v>
       </c>
       <c r="B142" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C142" s="15">
         <v>9</v>
       </c>
       <c r="D142" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s" s="12">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F142" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G142" s="9"/>
     </row>
@@ -5386,22 +5424,22 @@
         <v>21</v>
       </c>
       <c r="B143" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C143" s="15">
         <v>10</v>
       </c>
       <c r="D143" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E143" t="s" s="12">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F143" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s" s="12">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -5409,13 +5447,13 @@
         <v>24</v>
       </c>
       <c r="B144" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C144" s="15">
         <v>11</v>
       </c>
       <c r="D144" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="16"/>
@@ -5432,19 +5470,19 @@
         <v>12</v>
       </c>
       <c r="D145" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E145" t="s" s="12">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F145" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G145" s="9"/>
     </row>
     <row r="146" ht="56" customHeight="1">
       <c r="A146" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s" s="14">
         <v>19</v>
@@ -5453,13 +5491,13 @@
         <v>13</v>
       </c>
       <c r="D146" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E146" t="s" s="12">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F146" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G146" s="9"/>
     </row>
@@ -5474,10 +5512,10 @@
         <v>14</v>
       </c>
       <c r="D147" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E147" t="s" s="12">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F147" t="s" s="13">
         <v>17</v>
@@ -5489,19 +5527,19 @@
         <v>14</v>
       </c>
       <c r="B148" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C148" s="15">
         <v>15</v>
       </c>
       <c r="D148" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E148" t="s" s="12">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F148" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G148" s="9"/>
     </row>
@@ -5510,19 +5548,19 @@
         <v>18</v>
       </c>
       <c r="B149" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C149" s="15">
         <v>16</v>
       </c>
       <c r="D149" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E149" t="s" s="12">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F149" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G149" s="9"/>
     </row>
@@ -5531,40 +5569,40 @@
         <v>21</v>
       </c>
       <c r="B150" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C150" s="15">
         <v>17</v>
       </c>
       <c r="D150" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s" s="12">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F150" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" ht="32" customHeight="1">
+    <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="12">
         <v>24</v>
       </c>
       <c r="B151" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C151" s="15">
         <v>18</v>
       </c>
       <c r="D151" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E151" t="s" s="12">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F151" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G151" s="9"/>
     </row>
@@ -5573,42 +5611,42 @@
         <v>27</v>
       </c>
       <c r="B152" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C152" s="15">
         <v>19</v>
       </c>
       <c r="D152" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E152" t="s" s="12">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F152" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s" s="12">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" ht="32" customHeight="1">
       <c r="A153" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C153" s="15">
         <v>20</v>
       </c>
       <c r="D153" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E153" t="s" s="12">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F153" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G153" s="9"/>
     </row>
@@ -5617,13 +5655,13 @@
         <v>8</v>
       </c>
       <c r="B154" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C154" s="15">
         <v>21</v>
       </c>
       <c r="D154" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="16"/>
@@ -5634,13 +5672,13 @@
         <v>14</v>
       </c>
       <c r="B155" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C155" s="15">
         <v>22</v>
       </c>
       <c r="D155" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="16"/>
@@ -5651,13 +5689,13 @@
         <v>18</v>
       </c>
       <c r="B156" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C156" s="15">
         <v>23</v>
       </c>
       <c r="D156" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="16"/>
@@ -5668,13 +5706,13 @@
         <v>21</v>
       </c>
       <c r="B157" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C157" s="15">
         <v>24</v>
       </c>
       <c r="D157" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="16"/>
@@ -5691,16 +5729,16 @@
         <v>25</v>
       </c>
       <c r="D158" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E158" t="s" s="12">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F158" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G158" t="s" s="12">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" ht="32.05" customHeight="1">
@@ -5708,45 +5746,45 @@
         <v>27</v>
       </c>
       <c r="B159" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C159" s="15">
         <v>26</v>
       </c>
       <c r="D159" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E159" t="s" s="12">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F159" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G159" t="s" s="12">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" ht="44" customHeight="1">
       <c r="A160" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B160" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C160" s="15">
         <v>27</v>
       </c>
       <c r="D160" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E160" t="s" s="12">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F160" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G160" t="s" s="12">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="161" ht="32" customHeight="1">
@@ -5754,19 +5792,19 @@
         <v>8</v>
       </c>
       <c r="B161" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C161" s="15">
         <v>28</v>
       </c>
       <c r="D161" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E161" t="s" s="12">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F161" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G161" s="9"/>
     </row>
@@ -5781,13 +5819,13 @@
         <v>29</v>
       </c>
       <c r="D162" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E162" t="s" s="12">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F162" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G162" s="9"/>
     </row>
@@ -5802,10 +5840,10 @@
         <v>30</v>
       </c>
       <c r="D163" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E163" t="s" s="12">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F163" t="s" s="13">
         <v>17</v>
@@ -5823,16 +5861,16 @@
         <v>31</v>
       </c>
       <c r="D164" t="s" s="12">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E164" t="s" s="12">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F164" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s" s="12">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" ht="32.05" customHeight="1">
@@ -5841,13 +5879,13 @@
       <c r="C165" s="11"/>
       <c r="D165" s="9"/>
       <c r="E165" t="s" s="12">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F165" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G165" t="s" s="12">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -5870,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="16"/>
@@ -5882,10 +5920,10 @@
       <c r="C168" s="11"/>
       <c r="D168" s="9"/>
       <c r="E168" t="s" s="12">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F168" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G168" s="9"/>
     </row>
@@ -5900,10 +5938,10 @@
         <v>2</v>
       </c>
       <c r="D169" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E169" t="s" s="12">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F169" t="s" s="13">
         <v>17</v>
@@ -5912,7 +5950,7 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B170" t="s" s="14">
         <v>19</v>
@@ -5921,7 +5959,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="16"/>
@@ -5938,13 +5976,13 @@
         <v>4</v>
       </c>
       <c r="D171" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E171" t="s" s="12">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F171" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G171" s="9"/>
     </row>
@@ -5959,13 +5997,13 @@
         <v>5</v>
       </c>
       <c r="D172" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E172" t="s" s="12">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F172" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G172" s="9"/>
     </row>
@@ -5980,13 +6018,13 @@
         <v>6</v>
       </c>
       <c r="D173" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E173" t="s" s="12">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F173" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G173" s="9"/>
     </row>
@@ -5995,13 +6033,13 @@
         <v>21</v>
       </c>
       <c r="B174" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C174" s="15">
         <v>7</v>
       </c>
       <c r="D174" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="16"/>
@@ -6012,13 +6050,13 @@
         <v>24</v>
       </c>
       <c r="B175" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C175" s="15">
         <v>8</v>
       </c>
       <c r="D175" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E175" s="9"/>
       <c r="F175" s="16"/>
@@ -6029,16 +6067,16 @@
         <v>27</v>
       </c>
       <c r="B176" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C176" s="15">
         <v>9</v>
       </c>
       <c r="D176" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E176" t="s" s="12">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F176" t="s" s="13">
         <v>17</v>
@@ -6047,7 +6085,7 @@
     </row>
     <row r="177" ht="32" customHeight="1">
       <c r="A177" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B177" t="s" s="14">
         <v>15</v>
@@ -6056,13 +6094,13 @@
         <v>10</v>
       </c>
       <c r="D177" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E177" t="s" s="12">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F177" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G177" s="9"/>
     </row>
@@ -6077,13 +6115,13 @@
         <v>11</v>
       </c>
       <c r="D178" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E178" t="s" s="12">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F178" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G178" s="9"/>
     </row>
@@ -6098,16 +6136,16 @@
         <v>12</v>
       </c>
       <c r="D179" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E179" t="s" s="12">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F179" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G179" t="s" s="12">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" ht="44" customHeight="1">
@@ -6115,19 +6153,19 @@
         <v>18</v>
       </c>
       <c r="B180" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C180" s="15">
         <v>13</v>
       </c>
       <c r="D180" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E180" t="s" s="12">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F180" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G180" s="9"/>
     </row>
@@ -6136,37 +6174,37 @@
         <v>21</v>
       </c>
       <c r="B181" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C181" s="15">
         <v>14</v>
       </c>
       <c r="D181" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E181" t="s" s="12">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F181" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" ht="44" customHeight="1">
+    <row r="182" ht="44.05" customHeight="1">
       <c r="A182" t="s" s="12">
         <v>24</v>
       </c>
       <c r="B182" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C182" s="15">
         <v>15</v>
       </c>
       <c r="D182" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E182" t="s" s="12">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F182" t="s" s="13">
         <v>17</v>
@@ -6178,13 +6216,13 @@
         <v>27</v>
       </c>
       <c r="B183" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C183" s="15">
         <v>16</v>
       </c>
       <c r="D183" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="16"/>
@@ -6192,16 +6230,16 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B184" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C184" s="15">
         <v>17</v>
       </c>
       <c r="D184" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="16"/>
@@ -6212,19 +6250,19 @@
         <v>8</v>
       </c>
       <c r="B185" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C185" s="15">
         <v>18</v>
       </c>
       <c r="D185" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E185" t="s" s="12">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F185" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G185" s="9"/>
     </row>
@@ -6233,22 +6271,22 @@
         <v>14</v>
       </c>
       <c r="B186" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C186" s="15">
         <v>19</v>
       </c>
       <c r="D186" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E186" t="s" s="12">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F186" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G186" t="s" s="12">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" ht="32" customHeight="1">
@@ -6256,16 +6294,16 @@
         <v>18</v>
       </c>
       <c r="B187" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C187" s="15">
         <v>20</v>
       </c>
       <c r="D187" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E187" t="s" s="12">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F187" t="s" s="13">
         <v>17</v>
@@ -6277,19 +6315,19 @@
         <v>21</v>
       </c>
       <c r="B188" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C188" s="15">
         <v>21</v>
       </c>
       <c r="D188" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E188" t="s" s="12">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F188" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G188" s="9"/>
     </row>
@@ -6298,19 +6336,19 @@
         <v>24</v>
       </c>
       <c r="B189" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C189" s="15">
         <v>22</v>
       </c>
       <c r="D189" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E189" t="s" s="12">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F189" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G189" s="9"/>
     </row>
@@ -6319,23 +6357,23 @@
         <v>27</v>
       </c>
       <c r="B190" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C190" s="15">
         <v>23</v>
       </c>
       <c r="D190" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E190" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F190" s="16"/>
       <c r="G190" s="9"/>
     </row>
     <row r="191" ht="44.05" customHeight="1">
       <c r="A191" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s" s="14">
         <v>28</v>
@@ -6344,13 +6382,13 @@
         <v>24</v>
       </c>
       <c r="D191" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E191" t="s" s="12">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F191" t="s" s="13">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G191" s="9"/>
     </row>
@@ -6359,22 +6397,22 @@
         <v>8</v>
       </c>
       <c r="B192" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C192" s="15">
         <v>25</v>
       </c>
       <c r="D192" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E192" t="s" s="12">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F192" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G192" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" ht="32" customHeight="1">
@@ -6382,22 +6420,22 @@
         <v>14</v>
       </c>
       <c r="B193" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C193" s="15">
         <v>26</v>
       </c>
       <c r="D193" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E193" t="s" s="12">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F193" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G193" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -6405,19 +6443,19 @@
         <v>18</v>
       </c>
       <c r="B194" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C194" s="15">
         <v>27</v>
       </c>
       <c r="D194" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E194" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F194" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F194" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G194" s="9"/>
     </row>
@@ -6432,16 +6470,16 @@
         <v>28</v>
       </c>
       <c r="D195" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E195" t="s" s="12">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F195" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G195" t="s" s="12">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" ht="44.05" customHeight="1">
@@ -6455,13 +6493,13 @@
         <v>29</v>
       </c>
       <c r="D196" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s" s="12">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F196" t="s" s="13">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G196" s="9"/>
     </row>
@@ -6476,16 +6514,16 @@
         <v>30</v>
       </c>
       <c r="D197" t="s" s="12">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E197" t="s" s="12">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F197" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s" s="12">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -6499,7 +6537,7 @@
     </row>
     <row r="199" ht="44.05" customHeight="1">
       <c r="A199" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B199" t="s" s="14">
         <v>9</v>
@@ -6508,16 +6546,16 @@
         <v>1</v>
       </c>
       <c r="D199" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E199" t="s" s="12">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F199" t="s" s="13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G199" t="s" s="12">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" ht="56.05" customHeight="1">
@@ -6525,22 +6563,22 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C200" s="15">
         <v>2</v>
       </c>
       <c r="D200" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E200" t="s" s="12">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F200" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G200" t="s" s="12">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="201" ht="32" customHeight="1">
@@ -6548,22 +6586,22 @@
         <v>14</v>
       </c>
       <c r="B201" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C201" s="15">
         <v>3</v>
       </c>
       <c r="D201" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E201" t="s" s="12">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F201" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -6577,13 +6615,13 @@
         <v>4</v>
       </c>
       <c r="D202" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E202" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F202" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F202" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G202" s="9"/>
     </row>
@@ -6598,16 +6636,16 @@
         <v>5</v>
       </c>
       <c r="D203" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E203" t="s" s="12">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F203" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G203" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="204" ht="44" customHeight="1">
@@ -6621,13 +6659,13 @@
         <v>6</v>
       </c>
       <c r="D204" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E204" t="s" s="12">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F204" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G204" s="9"/>
     </row>
@@ -6642,19 +6680,19 @@
         <v>7</v>
       </c>
       <c r="D205" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E205" t="s" s="12">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F205" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G205" s="9"/>
     </row>
     <row r="206" ht="32" customHeight="1">
       <c r="A206" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B206" t="s" s="14">
         <v>28</v>
@@ -6663,13 +6701,13 @@
         <v>8</v>
       </c>
       <c r="D206" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E206" t="s" s="12">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F206" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G206" s="9"/>
     </row>
@@ -6678,13 +6716,13 @@
         <v>8</v>
       </c>
       <c r="B207" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C207" s="15">
         <v>9</v>
       </c>
       <c r="D207" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="16"/>
@@ -6695,19 +6733,19 @@
         <v>14</v>
       </c>
       <c r="B208" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C208" s="15">
         <v>10</v>
       </c>
       <c r="D208" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E208" t="s" s="12">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F208" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G208" s="9"/>
     </row>
@@ -6716,23 +6754,23 @@
         <v>18</v>
       </c>
       <c r="B209" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C209" s="15">
         <v>11</v>
       </c>
       <c r="D209" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E209" t="s" s="12">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F209" t="s" s="13">
         <v>17</v>
       </c>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" ht="44.05" customHeight="1">
+    <row r="210" ht="32.05" customHeight="1">
       <c r="A210" t="s" s="12">
         <v>21</v>
       </c>
@@ -6743,16 +6781,16 @@
         <v>12</v>
       </c>
       <c r="D210" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E210" t="s" s="12">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F210" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G210" t="s" s="12">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" ht="32" customHeight="1">
@@ -6766,13 +6804,13 @@
         <v>13</v>
       </c>
       <c r="D211" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E211" t="s" s="12">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F211" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G211" s="9"/>
     </row>
@@ -6787,34 +6825,34 @@
         <v>14</v>
       </c>
       <c r="D212" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E212" t="s" s="12">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F212" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G212" s="9"/>
     </row>
     <row r="213" ht="32" customHeight="1">
       <c r="A213" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B213" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C213" s="15">
         <v>15</v>
       </c>
       <c r="D213" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E213" t="s" s="12">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F213" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G213" s="9"/>
     </row>
@@ -6823,19 +6861,19 @@
         <v>8</v>
       </c>
       <c r="B214" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C214" s="15">
         <v>16</v>
       </c>
       <c r="D214" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E214" t="s" s="12">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F214" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G214" s="9"/>
     </row>
@@ -6844,19 +6882,19 @@
         <v>14</v>
       </c>
       <c r="B215" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C215" s="15">
         <v>17</v>
       </c>
       <c r="D215" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E215" t="s" s="12">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F215" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G215" s="9"/>
     </row>
@@ -6865,22 +6903,22 @@
         <v>18</v>
       </c>
       <c r="B216" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C216" s="15">
         <v>18</v>
       </c>
       <c r="D216" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E216" t="s" s="12">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F216" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s" s="12">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="217" ht="32" customHeight="1">
@@ -6888,19 +6926,19 @@
         <v>21</v>
       </c>
       <c r="B217" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C217" s="15">
         <v>19</v>
       </c>
       <c r="D217" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E217" t="s" s="12">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F217" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G217" s="9"/>
     </row>
@@ -6909,22 +6947,22 @@
         <v>24</v>
       </c>
       <c r="B218" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C218" s="15">
         <v>20</v>
       </c>
       <c r="D218" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E218" t="s" s="12">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F218" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G218" t="s" s="12">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" ht="32" customHeight="1">
@@ -6932,16 +6970,16 @@
         <v>27</v>
       </c>
       <c r="B219" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C219" s="15">
         <v>21</v>
       </c>
       <c r="D219" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E219" t="s" s="12">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F219" t="s" s="13">
         <v>17</v>
@@ -6950,22 +6988,22 @@
     </row>
     <row r="220" ht="44" customHeight="1">
       <c r="A220" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B220" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C220" s="15">
         <v>22</v>
       </c>
       <c r="D220" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E220" t="s" s="12">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F220" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G220" s="9"/>
     </row>
@@ -6974,22 +7012,22 @@
         <v>8</v>
       </c>
       <c r="B221" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C221" s="15">
         <v>23</v>
       </c>
       <c r="D221" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E221" t="s" s="12">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F221" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s" s="12">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="222" ht="44.05" customHeight="1">
@@ -6997,20 +7035,20 @@
         <v>14</v>
       </c>
       <c r="B222" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C222" s="15">
         <v>24</v>
       </c>
       <c r="D222" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E222" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F222" s="16"/>
       <c r="G222" t="s" s="12">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" ht="32.05" customHeight="1">
@@ -7024,16 +7062,16 @@
         <v>25</v>
       </c>
       <c r="D223" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E223" t="s" s="12">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F223" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G223" t="s" s="12">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" ht="32" customHeight="1">
@@ -7041,67 +7079,67 @@
         <v>21</v>
       </c>
       <c r="B224" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C224" s="15">
         <v>26</v>
       </c>
       <c r="D224" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E224" t="s" s="12">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F224" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" ht="32" customHeight="1">
+    <row r="225" ht="32.05" customHeight="1">
       <c r="A225" t="s" s="12">
         <v>24</v>
       </c>
       <c r="B225" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C225" s="15">
         <v>27</v>
       </c>
       <c r="D225" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E225" t="s" s="12">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F225" t="s" s="13">
         <v>17</v>
       </c>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" ht="80" customHeight="1">
+    <row r="226" ht="68.05" customHeight="1">
       <c r="A226" t="s" s="12">
         <v>27</v>
       </c>
       <c r="B226" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C226" s="15">
         <v>28</v>
       </c>
       <c r="D226" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E226" t="s" s="12">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F226" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G226" s="9"/>
     </row>
     <row r="227" ht="56.05" customHeight="1">
       <c r="A227" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B227" t="s" s="14">
         <v>15</v>
@@ -7110,16 +7148,16 @@
         <v>29</v>
       </c>
       <c r="D227" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E227" t="s" s="12">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F227" t="s" s="13">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="G227" t="s" s="12">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="228" ht="44" customHeight="1">
@@ -7133,10 +7171,10 @@
         <v>30</v>
       </c>
       <c r="D228" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E228" t="s" s="12">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F228" t="s" s="13">
         <v>17</v>
@@ -7154,13 +7192,13 @@
         <v>31</v>
       </c>
       <c r="D229" t="s" s="12">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E229" t="s" s="12">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F229" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G229" s="9"/>
     </row>
@@ -7184,16 +7222,16 @@
         <v>1</v>
       </c>
       <c r="D231" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E231" t="s" s="12">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F231" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s" s="12">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="232" ht="56" customHeight="1">
@@ -7207,19 +7245,19 @@
         <v>2</v>
       </c>
       <c r="D232" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E232" t="s" s="12">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F232" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G232" t="s" s="12">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="233" ht="44" customHeight="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="233" ht="32.05" customHeight="1">
       <c r="A233" t="s" s="12">
         <v>24</v>
       </c>
@@ -7230,13 +7268,13 @@
         <v>3</v>
       </c>
       <c r="D233" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E233" t="s" s="12">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F233" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G233" s="9"/>
     </row>
@@ -7251,19 +7289,19 @@
         <v>4</v>
       </c>
       <c r="D234" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E234" t="s" s="12">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F234" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G234" s="9"/>
     </row>
     <row r="235" ht="32" customHeight="1">
       <c r="A235" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B235" t="s" s="14">
         <v>25</v>
@@ -7272,13 +7310,13 @@
         <v>5</v>
       </c>
       <c r="D235" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E235" t="s" s="12">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F235" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G235" s="9"/>
     </row>
@@ -7293,16 +7331,16 @@
         <v>6</v>
       </c>
       <c r="D236" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E236" t="s" s="12">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F236" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G236" t="s" s="12">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" ht="32.05" customHeight="1">
@@ -7310,22 +7348,22 @@
         <v>14</v>
       </c>
       <c r="B237" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C237" s="15">
         <v>7</v>
       </c>
       <c r="D237" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E237" t="s" s="12">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F237" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G237" t="s" s="12">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" ht="44" customHeight="1">
@@ -7333,19 +7371,19 @@
         <v>18</v>
       </c>
       <c r="B238" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C238" s="15">
         <v>8</v>
       </c>
       <c r="D238" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E238" t="s" s="12">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F238" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G238" s="9"/>
     </row>
@@ -7354,22 +7392,22 @@
         <v>21</v>
       </c>
       <c r="B239" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C239" s="15">
         <v>9</v>
       </c>
       <c r="D239" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E239" t="s" s="12">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F239" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G239" t="s" s="12">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="240" ht="44.05" customHeight="1">
@@ -7383,13 +7421,13 @@
         <v>10</v>
       </c>
       <c r="D240" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E240" t="s" s="12">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F240" t="s" s="13">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G240" s="9"/>
     </row>
@@ -7404,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E241" t="s" s="12">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F241" t="s" s="13">
         <v>17</v>
@@ -7416,7 +7454,7 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B242" t="s" s="14">
         <v>22</v>
@@ -7425,13 +7463,13 @@
         <v>12</v>
       </c>
       <c r="D242" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E242" t="s" s="12">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F242" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G242" s="9"/>
     </row>
@@ -7440,16 +7478,16 @@
         <v>8</v>
       </c>
       <c r="B243" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C243" s="15">
         <v>13</v>
       </c>
       <c r="D243" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E243" t="s" s="12">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F243" t="s" s="13">
         <v>17</v>
@@ -7461,16 +7499,16 @@
         <v>14</v>
       </c>
       <c r="B244" t="s" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C244" s="15">
         <v>14</v>
       </c>
       <c r="D244" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E244" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F244" s="16"/>
       <c r="G244" s="9"/>
@@ -7480,19 +7518,19 @@
         <v>18</v>
       </c>
       <c r="B245" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C245" s="15">
         <v>15</v>
       </c>
       <c r="D245" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E245" t="s" s="12">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F245" t="s" s="13">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G245" s="9"/>
     </row>
@@ -7501,16 +7539,16 @@
         <v>21</v>
       </c>
       <c r="B246" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C246" s="15">
         <v>16</v>
       </c>
       <c r="D246" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E246" t="s" s="12">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F246" t="s" s="13">
         <v>12</v>
@@ -7522,22 +7560,22 @@
         <v>24</v>
       </c>
       <c r="B247" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C247" s="15">
         <v>17</v>
       </c>
       <c r="D247" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E247" t="s" s="12">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F247" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s" s="12">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" ht="32.05" customHeight="1">
@@ -7545,45 +7583,45 @@
         <v>27</v>
       </c>
       <c r="B248" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C248" s="15">
         <v>18</v>
       </c>
       <c r="D248" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E248" t="s" s="12">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F248" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s" s="12">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B249" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C249" s="15">
         <v>19</v>
       </c>
       <c r="D249" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E249" t="s" s="12">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F249" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G249" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="250" ht="44" customHeight="1">
@@ -7591,22 +7629,22 @@
         <v>8</v>
       </c>
       <c r="B250" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C250" s="15">
         <v>20</v>
       </c>
       <c r="D250" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E250" t="s" s="12">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F250" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G250" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="251" ht="56" customHeight="1">
@@ -7614,22 +7652,22 @@
         <v>14</v>
       </c>
       <c r="B251" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C251" s="15">
         <v>21</v>
       </c>
       <c r="D251" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E251" t="s" s="12">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F251" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G251" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="252" ht="56.05" customHeight="1">
@@ -7637,20 +7675,20 @@
         <v>18</v>
       </c>
       <c r="B252" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C252" s="15">
         <v>22</v>
       </c>
       <c r="D252" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E252" t="s" s="12">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F252" s="16"/>
       <c r="G252" t="s" s="12">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="253" ht="56.05" customHeight="1">
@@ -7659,13 +7697,13 @@
       <c r="C253" s="11"/>
       <c r="D253" s="9"/>
       <c r="E253" t="s" s="12">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F253" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G253" t="s" s="12">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="254" ht="32" customHeight="1">
@@ -7673,22 +7711,22 @@
         <v>21</v>
       </c>
       <c r="B254" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C254" s="15">
         <v>23</v>
       </c>
       <c r="D254" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E254" t="s" s="12">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F254" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G254" t="s" s="12">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="255" ht="32" customHeight="1">
@@ -7696,16 +7734,16 @@
         <v>24</v>
       </c>
       <c r="B255" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C255" s="15">
         <v>24</v>
       </c>
       <c r="D255" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E255" t="s" s="12">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F255" t="s" s="13">
         <v>12</v>
@@ -7723,31 +7761,31 @@
         <v>25</v>
       </c>
       <c r="D256" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E256" t="s" s="12">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F256" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G256" s="9"/>
     </row>
     <row r="257" ht="32" customHeight="1">
       <c r="A257" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B257" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C257" s="15">
         <v>26</v>
       </c>
       <c r="D257" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E257" t="s" s="12">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F257" t="s" s="13">
         <v>17</v>
@@ -7759,19 +7797,19 @@
         <v>8</v>
       </c>
       <c r="B258" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C258" s="15">
         <v>27</v>
       </c>
       <c r="D258" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E258" t="s" s="12">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F258" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G258" s="9"/>
     </row>
@@ -7780,22 +7818,22 @@
         <v>14</v>
       </c>
       <c r="B259" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C259" s="15">
         <v>28</v>
       </c>
       <c r="D259" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E259" t="s" s="12">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F259" t="s" s="13">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="G259" t="s" s="12">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="260" ht="32.05" customHeight="1">
@@ -7809,16 +7847,16 @@
         <v>29</v>
       </c>
       <c r="D260" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E260" t="s" s="12">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F260" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G260" t="s" s="12">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="261" ht="44.05" customHeight="1">
@@ -7832,16 +7870,16 @@
         <v>30</v>
       </c>
       <c r="D261" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E261" t="s" s="12">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F261" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G261" t="s" s="12">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="262" ht="32" customHeight="1">
@@ -7855,13 +7893,13 @@
         <v>31</v>
       </c>
       <c r="D262" t="s" s="12">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E262" t="s" s="12">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F262" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G262" s="9"/>
     </row>
@@ -7879,7 +7917,7 @@
       <c r="B264" s="10"/>
       <c r="C264" s="11"/>
       <c r="D264" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E264" s="9"/>
       <c r="F264" s="16"/>
@@ -7896,21 +7934,21 @@
         <v>1</v>
       </c>
       <c r="D265" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E265" t="s" s="12">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F265" t="s" s="13">
         <v>17</v>
       </c>
       <c r="G265" t="s" s="12">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" ht="44" customHeight="1">
       <c r="A266" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B266" t="s" s="14">
         <v>15</v>
@@ -7919,13 +7957,13 @@
         <v>2</v>
       </c>
       <c r="D266" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E266" t="s" s="12">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F266" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G266" s="9"/>
     </row>
@@ -7940,7 +7978,7 @@
         <v>3</v>
       </c>
       <c r="D267" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E267" s="9"/>
       <c r="F267" s="16"/>
@@ -7952,10 +7990,10 @@
       <c r="C268" s="11"/>
       <c r="D268" s="9"/>
       <c r="E268" t="s" s="12">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F268" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G268" s="9"/>
     </row>
@@ -7970,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="D269" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="16"/>
@@ -7987,13 +8025,13 @@
         <v>5</v>
       </c>
       <c r="D270" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E270" t="s" s="12">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F270" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G270" s="9"/>
     </row>
@@ -8008,7 +8046,7 @@
         <v>6</v>
       </c>
       <c r="D271" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E271" s="9"/>
       <c r="F271" s="16"/>
@@ -8019,13 +8057,13 @@
         <v>24</v>
       </c>
       <c r="B272" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C272" s="15">
         <v>7</v>
       </c>
       <c r="D272" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E272" s="9"/>
       <c r="F272" s="16"/>
@@ -8036,39 +8074,39 @@
         <v>27</v>
       </c>
       <c r="B273" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C273" s="15">
         <v>8</v>
       </c>
       <c r="D273" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E273" t="s" s="12">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F273" t="s" s="13">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G273" t="s" s="12">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" ht="32" customHeight="1">
       <c r="A274" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B274" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C274" s="15">
         <v>9</v>
       </c>
       <c r="D274" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E274" t="s" s="12">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F274" t="s" s="13">
         <v>17</v>
@@ -8086,13 +8124,13 @@
         <v>10</v>
       </c>
       <c r="D275" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E275" t="s" s="12">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F275" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G275" s="9"/>
     </row>
@@ -8107,10 +8145,10 @@
         <v>11</v>
       </c>
       <c r="D276" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E276" t="s" s="12">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F276" t="s" s="13">
         <v>17</v>
@@ -8128,13 +8166,13 @@
         <v>12</v>
       </c>
       <c r="D277" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E277" t="s" s="12">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F277" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G277" s="9"/>
     </row>
@@ -8143,13 +8181,13 @@
         <v>21</v>
       </c>
       <c r="B278" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C278" s="15">
         <v>13</v>
       </c>
       <c r="D278" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E278" s="9"/>
       <c r="F278" s="16"/>
@@ -8160,19 +8198,19 @@
         <v>24</v>
       </c>
       <c r="B279" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C279" s="15">
         <v>14</v>
       </c>
       <c r="D279" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E279" t="s" s="12">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F279" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G279" s="9"/>
     </row>
@@ -8181,45 +8219,45 @@
         <v>27</v>
       </c>
       <c r="B280" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C280" s="15">
         <v>15</v>
       </c>
       <c r="D280" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E280" t="s" s="12">
-        <v>123</v>
+        <v>314</v>
       </c>
       <c r="F280" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G280" t="s" s="12">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="281" ht="56.05" customHeight="1">
       <c r="A281" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B281" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C281" s="15">
         <v>16</v>
       </c>
       <c r="D281" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E281" t="s" s="12">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F281" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G281" t="s" s="12">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="282" ht="56" customHeight="1">
@@ -8227,19 +8265,19 @@
         <v>8</v>
       </c>
       <c r="B282" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C282" s="15">
         <v>17</v>
       </c>
       <c r="D282" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E282" t="s" s="12">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F282" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G282" s="9"/>
     </row>
@@ -8248,19 +8286,19 @@
         <v>14</v>
       </c>
       <c r="B283" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C283" s="15">
         <v>18</v>
       </c>
       <c r="D283" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E283" t="s" s="12">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F283" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G283" s="9"/>
     </row>
@@ -8269,43 +8307,43 @@
         <v>18</v>
       </c>
       <c r="B284" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C284" s="15">
         <v>19</v>
       </c>
       <c r="D284" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E284" t="s" s="12">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F284" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G284" s="9"/>
     </row>
-    <row r="285" ht="32" customHeight="1">
+    <row r="285" ht="32.05" customHeight="1">
       <c r="A285" t="s" s="12">
         <v>21</v>
       </c>
       <c r="B285" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C285" s="15">
         <v>20</v>
       </c>
       <c r="D285" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E285" t="s" s="12">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F285" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G285" t="s" s="12">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="286" ht="44" customHeight="1">
@@ -8313,16 +8351,16 @@
         <v>24</v>
       </c>
       <c r="B286" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C286" s="15">
         <v>21</v>
       </c>
       <c r="D286" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E286" t="s" s="12">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F286" t="s" s="13">
         <v>12</v>
@@ -8334,45 +8372,45 @@
         <v>27</v>
       </c>
       <c r="B287" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C287" s="15">
         <v>22</v>
       </c>
       <c r="D287" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E287" t="s" s="12">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F287" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s" s="12">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="288" ht="32.05" customHeight="1">
       <c r="A288" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B288" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C288" s="15">
         <v>23</v>
       </c>
       <c r="D288" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E288" t="s" s="12">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F288" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G288" t="s" s="12">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="289" ht="32" customHeight="1">
@@ -8386,13 +8424,13 @@
         <v>24</v>
       </c>
       <c r="D289" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E289" t="s" s="12">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F289" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G289" s="9"/>
     </row>
@@ -8401,13 +8439,13 @@
         <v>14</v>
       </c>
       <c r="B290" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C290" s="15">
         <v>25</v>
       </c>
       <c r="D290" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E290" s="9"/>
       <c r="F290" s="16"/>
@@ -8418,16 +8456,16 @@
         <v>18</v>
       </c>
       <c r="B291" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C291" s="15">
         <v>26</v>
       </c>
       <c r="D291" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E291" t="s" s="12">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F291" t="s" s="13">
         <v>17</v>
@@ -8439,19 +8477,19 @@
         <v>21</v>
       </c>
       <c r="B292" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C292" s="15">
         <v>27</v>
       </c>
       <c r="D292" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E292" t="s" s="12">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F292" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G292" s="9"/>
     </row>
@@ -8466,13 +8504,13 @@
         <v>28</v>
       </c>
       <c r="D293" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E293" t="s" s="12">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F293" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G293" s="9"/>
     </row>
@@ -8487,19 +8525,19 @@
         <v>29</v>
       </c>
       <c r="D294" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E294" t="s" s="12">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F294" t="s" s="13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G294" s="9"/>
     </row>
     <row r="295" ht="44" customHeight="1">
       <c r="A295" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B295" t="s" s="14">
         <v>22</v>
@@ -8508,13 +8546,13 @@
         <v>30</v>
       </c>
       <c r="D295" t="s" s="12">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E295" t="s" s="12">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F295" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G295" s="9"/>
     </row>
@@ -8532,7 +8570,7 @@
       <c r="B297" s="10"/>
       <c r="C297" s="11"/>
       <c r="D297" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E297" s="9"/>
       <c r="F297" s="16"/>
@@ -8549,10 +8587,10 @@
         <v>1</v>
       </c>
       <c r="D298" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E298" t="s" s="12">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F298" t="s" s="13">
         <v>17</v>
@@ -8564,40 +8602,40 @@
         <v>14</v>
       </c>
       <c r="B299" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C299" s="15">
         <v>2</v>
       </c>
       <c r="D299" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E299" t="s" s="12">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F299" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G299" s="9"/>
     </row>
-    <row r="300" ht="32" customHeight="1">
+    <row r="300" ht="32.05" customHeight="1">
       <c r="A300" t="s" s="12">
         <v>18</v>
       </c>
       <c r="B300" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C300" s="15">
         <v>3</v>
       </c>
       <c r="D300" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E300" t="s" s="12">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F300" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G300" s="9"/>
     </row>
@@ -8612,13 +8650,13 @@
         <v>4</v>
       </c>
       <c r="D301" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E301" t="s" s="12">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F301" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G301" s="9"/>
     </row>
@@ -8633,17 +8671,17 @@
         <v>5</v>
       </c>
       <c r="D302" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E302" t="s" s="12">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F302" t="s" s="13">
         <v>17</v>
       </c>
       <c r="G302" s="9"/>
     </row>
-    <row r="303" ht="32" customHeight="1">
+    <row r="303" ht="32.05" customHeight="1">
       <c r="A303" t="s" s="12">
         <v>27</v>
       </c>
@@ -8654,19 +8692,19 @@
         <v>6</v>
       </c>
       <c r="D303" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E303" t="s" s="12">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F303" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G303" s="9"/>
     </row>
     <row r="304" ht="56.05" customHeight="1">
       <c r="A304" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B304" t="s" s="14">
         <v>25</v>
@@ -8675,16 +8713,16 @@
         <v>7</v>
       </c>
       <c r="D304" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E304" t="s" s="12">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="F304" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G304" t="s" s="12">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" ht="20.05" customHeight="1">
@@ -8698,13 +8736,13 @@
         <v>8</v>
       </c>
       <c r="D305" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E305" t="s" s="12">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F305" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G305" s="9"/>
     </row>
@@ -8713,22 +8751,22 @@
         <v>14</v>
       </c>
       <c r="B306" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C306" s="15">
         <v>9</v>
       </c>
       <c r="D306" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E306" t="s" s="12">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F306" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G306" t="s" s="12">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="307" ht="44" customHeight="1">
@@ -8736,19 +8774,19 @@
         <v>18</v>
       </c>
       <c r="B307" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C307" s="15">
         <v>10</v>
       </c>
       <c r="D307" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E307" t="s" s="12">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F307" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G307" s="9"/>
     </row>
@@ -8757,16 +8795,16 @@
         <v>21</v>
       </c>
       <c r="B308" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C308" s="15">
         <v>11</v>
       </c>
       <c r="D308" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E308" t="s" s="12">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F308" t="s" s="13">
         <v>12</v>
@@ -8784,7 +8822,7 @@
         <v>12</v>
       </c>
       <c r="D309" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="16"/>
@@ -8801,19 +8839,19 @@
         <v>13</v>
       </c>
       <c r="D310" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E310" t="s" s="12">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F310" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G310" s="9"/>
     </row>
-    <row r="311" ht="32" customHeight="1">
+    <row r="311" ht="32.05" customHeight="1">
       <c r="A311" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B311" t="s" s="14">
         <v>22</v>
@@ -8822,13 +8860,13 @@
         <v>14</v>
       </c>
       <c r="D311" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E311" t="s" s="12">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F311" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G311" s="9"/>
     </row>
@@ -8837,19 +8875,19 @@
         <v>8</v>
       </c>
       <c r="B312" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C312" s="15">
         <v>15</v>
       </c>
       <c r="D312" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E312" t="s" s="12">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F312" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G312" s="9"/>
     </row>
@@ -8858,19 +8896,19 @@
         <v>14</v>
       </c>
       <c r="B313" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C313" s="15">
         <v>16</v>
       </c>
       <c r="D313" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E313" t="s" s="12">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F313" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G313" s="9"/>
     </row>
@@ -8879,19 +8917,19 @@
         <v>18</v>
       </c>
       <c r="B314" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C314" s="15">
         <v>17</v>
       </c>
       <c r="D314" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E314" t="s" s="12">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F314" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G314" s="9"/>
     </row>
@@ -8900,16 +8938,16 @@
         <v>21</v>
       </c>
       <c r="B315" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C315" s="15">
         <v>18</v>
       </c>
       <c r="D315" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E315" t="s" s="12">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F315" t="s" s="13">
         <v>12</v>
@@ -8921,19 +8959,19 @@
         <v>24</v>
       </c>
       <c r="B316" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C316" s="15">
         <v>19</v>
       </c>
       <c r="D316" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E316" t="s" s="12">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F316" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G316" s="9"/>
     </row>
@@ -8942,55 +8980,57 @@
         <v>27</v>
       </c>
       <c r="B317" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C317" s="15">
         <v>20</v>
       </c>
       <c r="D317" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E317" t="s" s="12">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F317" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G317" s="9"/>
     </row>
-    <row r="318" ht="32" customHeight="1">
+    <row r="318" ht="56.05" customHeight="1">
       <c r="A318" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B318" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C318" s="15">
         <v>21</v>
       </c>
       <c r="D318" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E318" t="s" s="12">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F318" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="G318" s="9"/>
+      <c r="G318" t="s" s="12">
+        <v>356</v>
+      </c>
     </row>
     <row r="319" ht="20.05" customHeight="1">
       <c r="A319" t="s" s="12">
         <v>8</v>
       </c>
       <c r="B319" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C319" s="15">
         <v>22</v>
       </c>
       <c r="D319" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E319" s="9"/>
       <c r="F319" s="16"/>
@@ -9001,13 +9041,13 @@
         <v>14</v>
       </c>
       <c r="B320" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C320" s="15">
         <v>23</v>
       </c>
       <c r="D320" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E320" s="9"/>
       <c r="F320" s="16"/>
@@ -9018,19 +9058,19 @@
         <v>18</v>
       </c>
       <c r="B321" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C321" s="15">
         <v>24</v>
       </c>
       <c r="D321" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E321" t="s" s="12">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F321" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G321" s="9"/>
     </row>
@@ -9045,10 +9085,10 @@
         <v>25</v>
       </c>
       <c r="D322" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E322" t="s" s="12">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F322" t="s" s="13">
         <v>17</v>
@@ -9060,16 +9100,16 @@
         <v>24</v>
       </c>
       <c r="B323" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C323" s="15">
         <v>26</v>
       </c>
       <c r="D323" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E323" t="s" s="12">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F323" t="s" s="13">
         <v>17</v>
@@ -9081,35 +9121,35 @@
         <v>27</v>
       </c>
       <c r="B324" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C324" s="15">
         <v>27</v>
       </c>
       <c r="D324" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E324" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F324" s="16"/>
       <c r="G324" s="9"/>
     </row>
     <row r="325" ht="44" customHeight="1">
       <c r="A325" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B325" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C325" s="15">
         <v>28</v>
       </c>
       <c r="D325" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E325" t="s" s="12">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F325" t="s" s="13">
         <v>12</v>
@@ -9127,7 +9167,7 @@
         <v>29</v>
       </c>
       <c r="D326" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E326" s="9"/>
       <c r="F326" s="16"/>
@@ -9144,7 +9184,7 @@
         <v>30</v>
       </c>
       <c r="D327" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E327" s="9"/>
       <c r="F327" s="16"/>
@@ -9161,26 +9201,26 @@
         <v>31</v>
       </c>
       <c r="D328" t="s" s="12">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E328" t="s" s="12">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F328" s="16"/>
       <c r="G328" s="9"/>
     </row>
-    <row r="329" ht="44" customHeight="1">
+    <row r="329" ht="44.05" customHeight="1">
       <c r="A329" s="9"/>
       <c r="B329" s="10"/>
       <c r="C329" s="11"/>
       <c r="D329" t="s" s="12">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E329" t="s" s="12">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F329" t="s" s="13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G329" s="9"/>
     </row>
@@ -9204,13 +9244,13 @@
         <v>1</v>
       </c>
       <c r="D331" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E331" t="s" s="12">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F331" t="s" s="13">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G331" s="9"/>
     </row>
@@ -9225,13 +9265,13 @@
         <v>2</v>
       </c>
       <c r="D332" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E332" t="s" s="12">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F332" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G332" s="9"/>
     </row>
@@ -9246,19 +9286,19 @@
         <v>3</v>
       </c>
       <c r="D333" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E333" t="s" s="12">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F333" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G333" s="9"/>
     </row>
     <row r="334" ht="44.05" customHeight="1">
       <c r="A334" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B334" t="s" s="14">
         <v>22</v>
@@ -9267,16 +9307,16 @@
         <v>4</v>
       </c>
       <c r="D334" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E334" t="s" s="12">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F334" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G334" t="s" s="12">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="335" ht="20.05" customHeight="1">
@@ -9290,13 +9330,13 @@
         <v>5</v>
       </c>
       <c r="D335" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E335" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F335" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F335" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G335" s="9"/>
     </row>
@@ -9311,13 +9351,13 @@
         <v>6</v>
       </c>
       <c r="D336" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E336" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F336" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F336" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G336" s="9"/>
     </row>
@@ -9326,19 +9366,19 @@
         <v>18</v>
       </c>
       <c r="B337" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C337" s="15">
         <v>7</v>
       </c>
       <c r="D337" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E337" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F337" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F337" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G337" s="9"/>
     </row>
@@ -9347,22 +9387,22 @@
         <v>21</v>
       </c>
       <c r="B338" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C338" s="15">
         <v>8</v>
       </c>
       <c r="D338" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E338" t="s" s="12">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F338" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G338" t="s" s="12">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="339" ht="44" customHeight="1">
@@ -9370,22 +9410,22 @@
         <v>24</v>
       </c>
       <c r="B339" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C339" s="15">
         <v>9</v>
       </c>
       <c r="D339" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E339" t="s" s="12">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F339" t="s" s="13">
         <v>12</v>
       </c>
       <c r="G339" t="s" s="12">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="340" ht="56.05" customHeight="1">
@@ -9399,21 +9439,21 @@
         <v>10</v>
       </c>
       <c r="D340" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E340" t="s" s="12">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F340" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G340" t="s" s="12">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" ht="32.05" customHeight="1">
       <c r="A341" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B341" t="s" s="14">
         <v>19</v>
@@ -9422,16 +9462,16 @@
         <v>11</v>
       </c>
       <c r="D341" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E341" t="s" s="12">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F341" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G341" t="s" s="12">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="342" ht="32" customHeight="1">
@@ -9445,13 +9485,13 @@
         <v>12</v>
       </c>
       <c r="D342" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E342" t="s" s="12">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F342" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G342" s="9"/>
     </row>
@@ -9460,19 +9500,19 @@
         <v>14</v>
       </c>
       <c r="B343" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C343" s="15">
         <v>13</v>
       </c>
       <c r="D343" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E343" t="s" s="12">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F343" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G343" s="9"/>
     </row>
@@ -9481,19 +9521,19 @@
         <v>18</v>
       </c>
       <c r="B344" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C344" s="15">
         <v>14</v>
       </c>
       <c r="D344" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E344" t="s" s="12">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F344" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G344" s="9"/>
     </row>
@@ -9502,19 +9542,19 @@
         <v>21</v>
       </c>
       <c r="B345" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C345" s="15">
         <v>15</v>
       </c>
       <c r="D345" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E345" t="s" s="12">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F345" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G345" s="9"/>
     </row>
@@ -9523,19 +9563,19 @@
         <v>24</v>
       </c>
       <c r="B346" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C346" s="15">
         <v>16</v>
       </c>
       <c r="D346" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E346" t="s" s="12">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F346" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G346" s="9"/>
     </row>
@@ -9544,40 +9584,40 @@
         <v>27</v>
       </c>
       <c r="B347" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C347" s="15">
         <v>17</v>
       </c>
       <c r="D347" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E347" t="s" s="12">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F347" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G347" s="9"/>
     </row>
-    <row r="348" ht="56" customHeight="1">
+    <row r="348" ht="44.05" customHeight="1">
       <c r="A348" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B348" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C348" s="15">
         <v>18</v>
       </c>
       <c r="D348" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E348" t="s" s="12">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F348" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G348" s="9"/>
     </row>
@@ -9586,22 +9626,22 @@
         <v>8</v>
       </c>
       <c r="B349" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C349" s="15">
         <v>19</v>
       </c>
       <c r="D349" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E349" t="s" s="12">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F349" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G349" t="s" s="12">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="350" ht="32" customHeight="1">
@@ -9609,19 +9649,19 @@
         <v>14</v>
       </c>
       <c r="B350" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C350" s="15">
         <v>20</v>
       </c>
       <c r="D350" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E350" t="s" s="12">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F350" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G350" s="9"/>
     </row>
@@ -9630,19 +9670,19 @@
         <v>18</v>
       </c>
       <c r="B351" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C351" s="15">
         <v>21</v>
       </c>
       <c r="D351" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E351" t="s" s="12">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F351" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G351" s="9"/>
     </row>
@@ -9651,19 +9691,19 @@
         <v>21</v>
       </c>
       <c r="B352" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C352" s="15">
         <v>22</v>
       </c>
       <c r="D352" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E352" t="s" s="12">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F352" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G352" s="9"/>
     </row>
@@ -9672,22 +9712,22 @@
         <v>24</v>
       </c>
       <c r="B353" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C353" s="15">
         <v>23</v>
       </c>
       <c r="D353" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E353" t="s" s="12">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F353" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G353" t="s" s="12">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="354" ht="44" customHeight="1">
@@ -9701,36 +9741,36 @@
         <v>24</v>
       </c>
       <c r="D354" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E354" t="s" s="12">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F354" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G354" t="s" s="12">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="355" ht="44" customHeight="1">
       <c r="A355" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B355" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C355" s="15">
         <v>25</v>
       </c>
       <c r="D355" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E355" t="s" s="12">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F355" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G355" s="9"/>
     </row>
@@ -9739,22 +9779,22 @@
         <v>8</v>
       </c>
       <c r="B356" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C356" s="15">
         <v>26</v>
       </c>
       <c r="D356" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E356" t="s" s="12">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F356" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G356" t="s" s="12">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -9762,13 +9802,13 @@
         <v>14</v>
       </c>
       <c r="B357" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C357" s="15">
         <v>27</v>
       </c>
       <c r="D357" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E357" s="9"/>
       <c r="F357" s="16"/>
@@ -9785,7 +9825,7 @@
         <v>28</v>
       </c>
       <c r="D358" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E358" s="9"/>
       <c r="F358" s="16"/>
@@ -9802,14 +9842,14 @@
         <v>29</v>
       </c>
       <c r="D359" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E359" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F359" s="16"/>
       <c r="G359" t="s" s="12">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="360" ht="32" customHeight="1">
@@ -9823,10 +9863,10 @@
         <v>30</v>
       </c>
       <c r="D360" t="s" s="12">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E360" t="s" s="12">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F360" t="s" s="13">
         <v>12</v>
@@ -9853,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="D362" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E362" s="9"/>
       <c r="F362" s="16"/>
@@ -9861,7 +9901,7 @@
     </row>
     <row r="363" ht="44" customHeight="1">
       <c r="A363" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B363" t="s" s="14">
         <v>15</v>
@@ -9870,13 +9910,13 @@
         <v>2</v>
       </c>
       <c r="D363" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E363" t="s" s="12">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F363" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G363" s="9"/>
     </row>
@@ -9891,13 +9931,13 @@
         <v>3</v>
       </c>
       <c r="D364" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E364" t="s" s="12">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="F364" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G364" s="9"/>
     </row>
@@ -9912,16 +9952,16 @@
         <v>4</v>
       </c>
       <c r="D365" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E365" t="s" s="12">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F365" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G365" t="s" s="12">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="366" ht="32.05" customHeight="1">
@@ -9935,12 +9975,12 @@
         <v>5</v>
       </c>
       <c r="D366" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E366" s="9"/>
       <c r="F366" s="16"/>
       <c r="G366" t="s" s="12">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="367" ht="32" customHeight="1">
@@ -9954,13 +9994,13 @@
         <v>6</v>
       </c>
       <c r="D367" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E367" t="s" s="12">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="F367" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G367" s="9"/>
     </row>
@@ -9969,19 +10009,19 @@
         <v>24</v>
       </c>
       <c r="B368" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C368" s="15">
         <v>7</v>
       </c>
       <c r="D368" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E368" t="s" s="12">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F368" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G368" s="9"/>
     </row>
@@ -9990,40 +10030,40 @@
         <v>27</v>
       </c>
       <c r="B369" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C369" s="15">
         <v>8</v>
       </c>
       <c r="D369" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E369" t="s" s="12">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F369" t="s" s="13">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G369" s="9"/>
     </row>
-    <row r="370" ht="32" customHeight="1">
+    <row r="370" ht="32.05" customHeight="1">
       <c r="A370" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B370" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C370" s="15">
         <v>9</v>
       </c>
       <c r="D370" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E370" t="s" s="12">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F370" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G370" s="9"/>
     </row>
@@ -10038,19 +10078,19 @@
         <v>10</v>
       </c>
       <c r="D371" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E371" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F371" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="F371" t="s" s="13">
-        <v>36</v>
-      </c>
       <c r="G371" t="s" s="12">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="372" ht="32" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="372" ht="32.05" customHeight="1">
       <c r="A372" t="s" s="12">
         <v>14</v>
       </c>
@@ -10061,16 +10101,16 @@
         <v>11</v>
       </c>
       <c r="D372" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E372" t="s" s="12">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F372" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G372" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="373" ht="20.05" customHeight="1">
@@ -10084,13 +10124,13 @@
         <v>12</v>
       </c>
       <c r="D373" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E373" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F373" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F373" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G373" s="9"/>
     </row>
@@ -10099,22 +10139,22 @@
         <v>21</v>
       </c>
       <c r="B374" t="s" s="14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C374" s="15">
         <v>13</v>
       </c>
       <c r="D374" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E374" t="s" s="12">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F374" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G374" t="s" s="12">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="375" ht="20.05" customHeight="1">
@@ -10122,19 +10162,19 @@
         <v>24</v>
       </c>
       <c r="B375" t="s" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C375" s="15">
         <v>14</v>
       </c>
       <c r="D375" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E375" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="F375" t="s" s="13">
         <v>38</v>
-      </c>
-      <c r="F375" t="s" s="13">
-        <v>36</v>
       </c>
       <c r="G375" s="9"/>
     </row>
@@ -10143,40 +10183,40 @@
         <v>27</v>
       </c>
       <c r="B376" t="s" s="14">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C376" s="15">
         <v>15</v>
       </c>
       <c r="D376" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E376" t="s" s="12">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F376" t="s" s="13">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G376" s="9"/>
     </row>
     <row r="377" ht="32" customHeight="1">
       <c r="A377" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B377" t="s" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C377" s="15">
         <v>16</v>
       </c>
       <c r="D377" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E377" t="s" s="12">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F377" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G377" s="9"/>
     </row>
@@ -10185,13 +10225,13 @@
         <v>8</v>
       </c>
       <c r="B378" t="s" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C378" s="15">
         <v>17</v>
       </c>
       <c r="D378" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E378" s="9"/>
       <c r="F378" s="16"/>
@@ -10202,13 +10242,13 @@
         <v>14</v>
       </c>
       <c r="B379" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C379" s="15">
         <v>18</v>
       </c>
       <c r="D379" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E379" s="9"/>
       <c r="F379" s="16"/>
@@ -10219,13 +10259,13 @@
         <v>18</v>
       </c>
       <c r="B380" t="s" s="14">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C380" s="15">
         <v>19</v>
       </c>
       <c r="D380" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E380" s="9"/>
       <c r="F380" s="16"/>
@@ -10236,16 +10276,16 @@
         <v>21</v>
       </c>
       <c r="B381" t="s" s="14">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C381" s="15">
         <v>20</v>
       </c>
       <c r="D381" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E381" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F381" s="16"/>
       <c r="G381" s="9"/>
@@ -10255,16 +10295,16 @@
         <v>24</v>
       </c>
       <c r="B382" t="s" s="14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C382" s="15">
         <v>21</v>
       </c>
       <c r="D382" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E382" t="s" s="12">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F382" t="s" s="13">
         <v>12</v>
@@ -10276,13 +10316,13 @@
         <v>27</v>
       </c>
       <c r="B383" t="s" s="14">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C383" s="15">
         <v>22</v>
       </c>
       <c r="D383" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E383" s="9"/>
       <c r="F383" s="16"/>
@@ -10290,16 +10330,16 @@
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B384" t="s" s="14">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C384" s="15">
         <v>23</v>
       </c>
       <c r="D384" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E384" s="9"/>
       <c r="F384" s="16"/>
@@ -10310,16 +10350,16 @@
         <v>8</v>
       </c>
       <c r="B385" t="s" s="14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C385" s="15">
         <v>24</v>
       </c>
       <c r="D385" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E385" t="s" s="12">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F385" s="16"/>
       <c r="G385" s="9"/>
@@ -10335,13 +10375,13 @@
         <v>25</v>
       </c>
       <c r="D386" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E386" t="s" s="12">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F386" t="s" s="13">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="G386" s="9"/>
     </row>
@@ -10350,22 +10390,22 @@
         <v>18</v>
       </c>
       <c r="B387" t="s" s="14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C387" s="15">
         <v>26</v>
       </c>
       <c r="D387" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E387" t="s" s="12">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="F387" t="s" s="13">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G387" t="s" s="12">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="388" ht="44.05" customHeight="1">
@@ -10373,22 +10413,22 @@
         <v>21</v>
       </c>
       <c r="B388" t="s" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C388" s="15">
         <v>27</v>
       </c>
       <c r="D388" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E388" t="s" s="12">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F388" t="s" s="13">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G388" t="s" s="12">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="389" ht="44.05" customHeight="1">
@@ -10396,22 +10436,22 @@
         <v>24</v>
       </c>
       <c r="B389" t="s" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C389" s="15">
         <v>28</v>
       </c>
       <c r="D389" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E389" t="s" s="12">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F389" t="s" s="13">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G389" t="s" s="12">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="390" ht="32.05" customHeight="1">
@@ -10425,21 +10465,21 @@
         <v>29</v>
       </c>
       <c r="D390" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E390" t="s" s="12">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F390" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G390" t="s" s="12">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="391" ht="32.05" customHeight="1">
       <c r="A391" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B391" t="s" s="14">
         <v>19</v>
@@ -10448,16 +10488,16 @@
         <v>30</v>
       </c>
       <c r="D391" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E391" t="s" s="12">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="F391" t="s" s="13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G391" t="s" s="12">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="392" ht="32.05" customHeight="1">
@@ -10471,16 +10511,16 @@
         <v>31</v>
       </c>
       <c r="D392" t="s" s="12">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E392" t="s" s="12">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="F392" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G392" t="s" s="12">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -10514,7 +10554,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10528,34 +10568,34 @@
     </row>
     <row r="2" ht="36.2" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
@@ -10600,7 +10640,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="s" s="23">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C4" s="24">
         <f>E4:E4-(64-1)+1</f>
@@ -10748,7 +10788,7 @@
         <v>2028</v>
       </c>
       <c r="B8" t="s" s="23">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C8" s="24">
         <f>E8:E8-(64-1)+1</f>
@@ -10785,7 +10825,7 @@
         <v>2029</v>
       </c>
       <c r="B9" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="24">
         <f>E9:E9-(64-1)</f>
@@ -10896,7 +10936,7 @@
         <v>2032</v>
       </c>
       <c r="B12" t="s" s="23">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C12" s="24">
         <f>E12:E12-(64-1)+1</f>
@@ -11007,7 +11047,7 @@
         <v>2035</v>
       </c>
       <c r="B15" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="24">
         <f>E15:E15-(64-1)</f>
@@ -11044,7 +11084,7 @@
         <v>2036</v>
       </c>
       <c r="B16" t="s" s="23">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C16" s="24">
         <f>E16:E16-(64-1)+1</f>
@@ -11192,7 +11232,7 @@
         <v>2040</v>
       </c>
       <c r="B20" t="s" s="23">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C20" s="24">
         <f>E20:E20-(64-1)+1</f>
@@ -11340,7 +11380,7 @@
         <v>2044</v>
       </c>
       <c r="B24" t="s" s="23">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C24" s="24">
         <f>E24:E24-(64-1)+1</f>
@@ -11414,7 +11454,7 @@
         <v>2046</v>
       </c>
       <c r="B26" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="24">
         <f>E26:E26-(64-1)</f>
@@ -11488,7 +11528,7 @@
         <v>2048</v>
       </c>
       <c r="B28" t="s" s="23">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C28" s="24">
         <f>E28:E28-(64-1)+1</f>
@@ -11636,7 +11676,7 @@
         <v>2052</v>
       </c>
       <c r="B32" t="s" s="23">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C32" s="24">
         <f>E32:E32-(64-1)+1</f>
@@ -11784,7 +11824,7 @@
         <v>2056</v>
       </c>
       <c r="B36" t="s" s="23">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C36" s="24">
         <f>E36:E36-(64-1)+1</f>
@@ -11821,7 +11861,7 @@
         <v>2057</v>
       </c>
       <c r="B37" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="24">
         <f>E37:E37-(64-1)</f>
@@ -11932,7 +11972,7 @@
         <v>2060</v>
       </c>
       <c r="B40" t="s" s="23">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C40" s="24">
         <f>E40:E40-(64-1)+1</f>
@@ -12043,7 +12083,7 @@
         <v>2063</v>
       </c>
       <c r="B43" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="24">
         <f>E43:E43-(64-1)</f>
@@ -12080,7 +12120,7 @@
         <v>2064</v>
       </c>
       <c r="B44" t="s" s="23">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="C44" s="24">
         <f>E44:E44-(64-1)+1</f>
@@ -12228,7 +12268,7 @@
         <v>2068</v>
       </c>
       <c r="B48" t="s" s="23">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C48" s="24">
         <f>E48:E48-(64-1)+1</f>
@@ -12376,7 +12416,7 @@
         <v>2072</v>
       </c>
       <c r="B52" t="s" s="23">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="C52" s="24">
         <f>E52:E52-(64-1)+1</f>
@@ -12450,7 +12490,7 @@
         <v>2074</v>
       </c>
       <c r="B54" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="24">
         <f>E54:E54-(64-1)</f>
@@ -12524,7 +12564,7 @@
         <v>2076</v>
       </c>
       <c r="B56" t="s" s="23">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C56" s="24">
         <f>E56:E56-(64-1)+1</f>
@@ -12672,7 +12712,7 @@
         <v>2080</v>
       </c>
       <c r="B60" t="s" s="23">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C60" s="24">
         <f>E60:E60-(64-1)+1</f>
@@ -12820,7 +12860,7 @@
         <v>2084</v>
       </c>
       <c r="B64" t="s" s="23">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C64" s="24">
         <f>E64:E64-(64-1)+1</f>
@@ -12857,7 +12897,7 @@
         <v>2085</v>
       </c>
       <c r="B65" t="s" s="23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C65" s="24">
         <f>E65:E65-(64-1)</f>
@@ -12968,7 +13008,7 @@
         <v>2088</v>
       </c>
       <c r="B68" t="s" s="23">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C68" s="24">
         <f>E68:E68-(64-1)+1</f>
